--- a/data/imported/phospho_human.xlsx
+++ b/data/imported/phospho_human.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="105">
   <si>
     <t xml:space="preserve">PhosphoSite</t>
   </si>
@@ -37,307 +37,307 @@
     <t xml:space="preserve">Peptides</t>
   </si>
   <si>
-    <t xml:space="preserve">CSNK1G2-Phospho:S366.S381</t>
+    <t xml:space="preserve">FAM122B-Phospho:S50.S58</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">PCDH7-Phospho:S1011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTUD4-Phospho:S1023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAT-Phospho:S40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2SURP-Phospho:S63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNX16-Phospho:S29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF592-Phospho:S1205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTF2F1-Phospho:S218.S221.S224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARID2-Phospho:S631.S635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAMP1-Phospho:S319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFIA-Phospho:S333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRRM2-Phospho:S1890.T1892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUP214-Phospho:S430.S433.T437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDC23-Phospho:S588.S593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FNIP1-Phospho:S593.S594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEATR6-Phospho:S336.S337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUP153-Phospho:S614.S619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF592-Phospho:S74.S78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRRM2-Phospho:S778.S780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SASH3-Phospho:S357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS2-Phospho:S735.S736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKAP-Phospho:S149.S157.T161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANKRD17-Phospho:S1696.S1700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZBTB16-Phospho:T282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFIA-Phospho:S258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRSF8-Phospho:S273.S282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA2G4-Phospho:T386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCPIP1-Phospho:S998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMT2A-Phospho:S534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPATCH8-Phospho:S911.S914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRRM1-Phospho:S694.S696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3A-Phospho:S243.T257.T261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELZ-Phospho:S1738.S1741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELL-Phospho:S444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPTBN1-Phospho:S2319.T2320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC2-Phospho:S755.S757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EI24-Phospho:S320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRPS17-Phospho:S127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNIK-Phospho:S707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCOR2-Phospho:S2046.S2054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRRM2-Phospho:S1541.S1552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX55-Phospho:S594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUWE1-Phospho:S3906.T3924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TARBP2-Phospho:S152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRRM2-Phospho:S2100.S2102.T2104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD8-Phospho:S1995.S2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLDN23-Phospho:S203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERC2-Phospho:S1942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDX21-Phospho:S171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOP1-Phospho:S245.S249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZFP36L2-Phospho:S438.S474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAC-Phospho:S94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELF1-Phospho:T180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENP6-Phospho:S335.S336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS1L-Phospho:S249.S254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWS1-Phospho:S261.S263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPA4-Phospho:S828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNRF2-Phospho:S116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QSER1-Phospho:T1341.S1348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPO-Phospho:S92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEKHO2-Phospho:S273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRKCA-Phospho:T638.S657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFHD2-Phospho:S76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNMT3B-Phospho:S82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSF1-Phospho:S617.T628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RREB1-Phospho:S1167.S1174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNRNPD-Phospho:S82.S83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM114A2-Phospho:S146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAM122A-Phospho:S270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINK1-Phospho:S732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD4-Phospho:S515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUD13-Phospho:S172.S175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNAPC4-Phospho:S1224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPGEF6-Phospho:S1229.S1241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHKBP1-Phospho:S642.S649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPAP3-Phospho:S116.S119.S121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF2-Phospho:S144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARID4B-Phospho:S1029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASC3-Phospho:T127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAV1-Phospho:S452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEX10-Phospho:S261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TBC1D9B-Phospho:T1239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CENPC-Phospho:S73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATXN2-Phospho:T529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNMA5-Phospho:S128.S133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBAP2L-Phospho:S605.S609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHD7-Phospho:S2559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABI1-Phospho:S183.T191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCKSL1-Phospho:S162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZNF687-Phospho:T1120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEBPZ-Phospho:S34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIF1B-Phospho:S1057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCM1-Phospho:S378.S380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPR-Phospho:S646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWOX-Phospho:T12.S14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPH1-Phospho:S809.T815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPF40A-Phospho:S933.S935.S938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCRIB-Phospho:S1306.S1309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDS2-Phospho:S33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATXN7L3-Phospho:S131</t>
+    <t xml:space="preserve">IRF8-Phospho:S162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANBP3-Phospho:S241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNCK-Phospho:S283.S285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK1-Phospho:T185.Y187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP3K11-Phospho:S548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH2B3-Phospho:S141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVPL-Phospho:S1617.T1624.S1626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH3RF3-Phospho:S797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPS13B-Phospho:S1815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPP1R1B-Phospho:S45.S46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPL3-Phospho:S13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NYAP2-Phospho:T220.S221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRFIP1-Phospho:S713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCHS1-Phospho:S827.S829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA2-Phospho:S548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK12-Phospho:S332.S334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP45-Phospho:S577.S578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YBX1-Phospho:S165.S176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDP1-Phospho:S1317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIGYF2-Phospho:S236.S242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SF3B1-Phospho:T244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIM1-Phospho:S512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V1C2-Phospho:S54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPS6KA4-Phospho:S343.S347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIN2-Phospho:T276.S277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST1H1B-Phospho:S189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLB-Phospho:S799.S800.S801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDI2-Phospho:S121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEFV-Phospho:S179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPEF2-Phospho:S353.S356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF654-Phospho:S576.S580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCSK7-Phospho:S502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNRNPUL2-Phospho:S193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRRC2A-Phospho:S920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPAN-Phospho:S238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRAP3-Phospho:S408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF12-Phospho:S116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLR1D-Phospho:S100.S104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPATCH8-Phospho:S1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6-Phospho:S333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS2-Phospho:S1148.S1149.S1162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1FX-Phospho:S27.S33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRRM2-Phospho:S1916.S1919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MON1B-Phospho:S59.S61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDM2B-Phospho:S1029.S1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNF25-Phospho:S450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3H13-Phospho:S207.S211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZC3H13-Phospho:S370.S372.S380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACIN1-Phospho:S388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPAP3-Phospho:S245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSUN5P2-Phospho:S260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK14-Phospho:S78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIP12-Phospho:S310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNX3-Phospho:S227.T231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BZW1-Phospho:S411.S413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCOR1-Phospho:S70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRRM2-Phospho:S1890.S1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNKP-Phospho:S114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPRD1B-Phospho:S132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNPS1-Phospho:S137.S139.S141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUP133-Phospho:S57.T63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZNF318-Phospho:S89.S91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCNE2-Phospho:S21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SON-Phospho:S2020.T2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTF3C1-Phospho:S1854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO9B-Phospho:S1356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND1C-Phospho:S582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHACTR4-Phospho:S270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENPA-Phospho:S17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM121-Phospho:S179.S188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPN22-Phospho:S493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRPF38B-Phospho:S266.S268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL7C-Phospho:T111.S126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKACB-Phospho:S339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYOCD-Phospho:S577.S578.S583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRWD1-Phospho:S212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALAS1-Phospho:S85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP22-Phospho:S587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIT1-Phospho:S385.S388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIDO1-Phospho:T1256.S1260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAF2-Phospho:S144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRRM1-Phospho:S450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADD-Phospho:S813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRRM2-Phospho:S1972.S1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST1H1B-Phospho:T138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHNAK-Phospho:S4986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYO9B-Phospho:S1405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBN2-Phospho:S584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIF4B-Phospho:S442.S445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATXN2L-Phospho:T683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DVL2-Phospho:S169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFT2D1-Phospho:S9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIN37-Phospho:S182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDK14-Phospho:S134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARK3-Phospho:S563.T564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC1D9B-Phospho:S411.S435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTMR1-Phospho:S653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHRF1-Phospho:S936.S950.T951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWS1-Phospho:S511.S513</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -494,7 +494,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,13 +516,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>-5.21868254383863</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0763412259565217</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -530,13 +530,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>-1000</v>
+        <v>-4.87891443404146</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,13 +544,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
+        <v>-4.7589370954364</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.00238506146040802</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>-4.58341910734125</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0252662801278472</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,13 +572,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
+        <v>-4.25585565221996</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.0581756240455477</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,13 +586,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>-1000</v>
+        <v>-4.02023043503224</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.92258885831679</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -614,13 +614,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>-3.69324733448973</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.306736705868602</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -628,13 +628,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.65975915544892</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
+        <v>-3.65285057707532</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.499225885890268</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,13 +656,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
+        <v>-3.43804562815701</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.29457120738987</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -670,13 +670,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>-3.43308784693499</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.43173774368499</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -684,13 +684,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
+        <v>-3.39159134342557</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.550659082446883</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,13 +698,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.31844798378315</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,13 +712,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.29844697754506</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,13 +726,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.29274922350289</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,13 +740,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>5</v>
+        <v>-3.26286859941313</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.013182461429139</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -754,13 +754,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>5</v>
+        <v>-3.23413171802306</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.0282072072430804</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,13 +768,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.1609999038515</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,13 +782,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.13827162930331</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,13 +796,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.10239257716916</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,13 +810,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>5</v>
+        <v>-3.09924573239681</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.375828412063727</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,13 +824,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.08074102435223</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,13 +838,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>5</v>
+        <v>-3.0259784540963</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.460508294541169</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -852,13 +852,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>-1000</v>
+        <v>-3.01885766276732</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,13 +866,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>5</v>
+        <v>-2.90093695980286</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.611594205112674</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,13 +880,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>5</v>
+        <v>-2.83643510731873</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.193365751819354</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,13 +894,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>5</v>
+        <v>-2.80481218789807</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.201652875646623</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,13 +908,13 @@
         <v>36</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.75316618131815</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,13 +922,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>-2.7357803717279</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.0441214695478543</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,13 +936,13 @@
         <v>38</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.67025591132703</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -950,13 +950,13 @@
         <v>39</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>-2.65222279357336</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.359040367584651</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -964,13 +964,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.61869635791355</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,13 +978,13 @@
         <v>41</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.6169936746986</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,13 +992,13 @@
         <v>42</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>5</v>
+        <v>-2.58337255026201</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.123993786409964</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,13 +1006,13 @@
         <v>43</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>5</v>
+        <v>-2.47169381127091</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.72402883385193</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1020,13 +1020,13 @@
         <v>44</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.45111984581126</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,13 +1034,13 @@
         <v>45</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.38171142677332</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1048,13 +1048,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>5</v>
+        <v>-2.31875341189096</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.406232344260693</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,13 +1062,13 @@
         <v>47</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>5</v>
+        <v>-2.30633174125993</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.329298829047284</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,13 +1076,13 @@
         <v>48</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.28713955524258</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,7 +1090,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.27936956162404</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>5</v>
@@ -1104,13 +1104,13 @@
         <v>50</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>5</v>
+        <v>-2.27802333972589</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.435844514205287</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,13 +1118,13 @@
         <v>51</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.24514146629764</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,13 +1132,13 @@
         <v>52</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>5</v>
+        <v>-2.22954459189336</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.421442621301397</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1146,13 +1146,13 @@
         <v>53</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>5</v>
+        <v>-2.22398253485687</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.603116026380029</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,13 +1160,13 @@
         <v>54</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>5</v>
+        <v>-2.21963530939549</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.110945102644545</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1174,13 +1174,13 @@
         <v>55</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>-2.21854335225825</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.0256918869330322</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1188,13 +1188,13 @@
         <v>56</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.21729573221236</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,13 +1202,13 @@
         <v>57</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>-2.21170700592118</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.0473154266723747</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1216,13 +1216,13 @@
         <v>58</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>-2.21035718833618</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.143820149476276</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,13 +1230,13 @@
         <v>59</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.21004591720107</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1244,13 +1244,13 @@
         <v>60</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.19626801425575</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,13 +1258,13 @@
         <v>61</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.13946860941729</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,13 +1272,13 @@
         <v>62</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>-2.12643839573698</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.579845431128839</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,13 +1286,13 @@
         <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.12601758010882</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,13 +1300,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.12360706883009</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1314,13 +1314,13 @@
         <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.11392730215514</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1328,13 +1328,13 @@
         <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.1045890709155</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,13 +1342,13 @@
         <v>67</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>5</v>
+        <v>-2.09999188484241</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.668762328540604</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,13 +1356,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>5</v>
+        <v>-2.09312962280605</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>0.806423589041931</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,13 +1370,13 @@
         <v>69</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>5</v>
+        <v>-2.09225273107658</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>0.659898106458811</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1384,13 +1384,13 @@
         <v>70</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.0716066116072</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1398,13 +1398,13 @@
         <v>71</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>5</v>
+        <v>-2.07006578439247</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.0126061555277647</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,13 +1412,13 @@
         <v>72</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>5</v>
+        <v>-2.05449957432503</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.181735460696714</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,13 +1426,13 @@
         <v>73</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.0533455381485</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,13 +1440,13 @@
         <v>74</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>5</v>
+        <v>-2.04192828160994</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.506951246106053</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,13 +1454,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>5</v>
+        <v>-2.01923591091136</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.0682666638638291</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,13 +1468,13 @@
         <v>76</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>5</v>
+        <v>-2.00342874907986</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.170525533033788</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,13 +1482,13 @@
         <v>77</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>5</v>
+        <v>-2.00256737400228</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.514548048207413</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,13 +1496,13 @@
         <v>78</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>-1000</v>
+        <v>-2.00189505288249</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,13 +1510,13 @@
         <v>79</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.98854697299936</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,13 +1524,13 @@
         <v>80</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.98745923662479</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,13 +1538,13 @@
         <v>81</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.98462715123197</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,13 +1552,13 @@
         <v>82</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.97601747245655</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,13 +1566,13 @@
         <v>83</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>5</v>
+        <v>-1.94805830576893</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>0.66908351156676</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,13 +1580,13 @@
         <v>84</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.94424436741812</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,13 +1594,13 @@
         <v>85</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>5</v>
+        <v>-1.92827323996492</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>0.51925031213179</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,13 +1608,13 @@
         <v>86</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>5</v>
+        <v>-1.92155814801878</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.725424393211702</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,13 +1622,13 @@
         <v>87</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>5</v>
+        <v>-1.92006512462839</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.188684640729358</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,13 +1636,13 @@
         <v>88</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.91883511063696</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,13 +1650,13 @@
         <v>89</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>5</v>
+        <v>-1.91698206373353</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.569289024912328</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1664,13 +1664,13 @@
         <v>90</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.91425645886021</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,13 +1678,13 @@
         <v>91</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>5</v>
+        <v>-1.91128646635137</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.149080295282231</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1692,13 +1692,13 @@
         <v>92</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>5</v>
+        <v>-1.91073259220095</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.287302616947581</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,13 +1706,13 @@
         <v>93</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.90830122190369</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,13 +1720,13 @@
         <v>94</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>5</v>
+        <v>-1.90562690112447</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.35135608435763</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,13 +1734,13 @@
         <v>95</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.90196202372564</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,13 +1748,13 @@
         <v>96</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.89407349006983</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,13 +1762,13 @@
         <v>97</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>5</v>
+        <v>-1.87009437500949</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.267935365571585</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,13 +1776,13 @@
         <v>98</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.86562687759813</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1790,13 +1790,13 @@
         <v>99</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>5</v>
+        <v>-1.86184152416101</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.103755718077858</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,13 +1804,13 @@
         <v>100</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>5</v>
+        <v>-1.86056504808748</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.212050560176861</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1818,13 +1818,13 @@
         <v>101</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>5</v>
+        <v>-1.86050395439476</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>0.167167553232508</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,13 +1832,13 @@
         <v>102</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.85373680397719</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1846,13 +1846,13 @@
         <v>103</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>-1000</v>
+        <v>-1.83779313407275</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,13 +1860,13 @@
         <v>104</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>-1000</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>5</v>
+        <v>-1.83188575538244</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>0.550659082446883</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/imported/phospho_human.xlsx
+++ b/data/imported/phospho_human.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -3043,6 +3043,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3109,32 +3110,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,7 +3158,7 @@
         <v>2.92192502692727</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.86221523839049</v>
+        <v>0.88194592066469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,7 +3169,7 @@
         <v>1.70145293100279</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.43150892527774</v>
+        <v>0.0641544531862984</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3178,7 +3180,7 @@
         <v>-0.447050171621903</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.30276379105635</v>
+        <v>0.40143135633247</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3191,7 @@
         <v>-1.15390571451026</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.974720306927338</v>
+        <v>0.385819377509877</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3202,7 @@
         <v>-0.487953240376533</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0.272842471254989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3211,7 +3213,7 @@
         <v>-0.298036869236422</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>0.71509807696566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3222,7 +3224,7 @@
         <v>0.569668271423847</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>0.126435302430764</v>
+        <v>0.656538522975603</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,7 +3235,7 @@
         <v>4.78705733454682</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.025713344104588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3244,7 +3246,7 @@
         <v>-2.49055516459802</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.941542290849611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,7 +3257,7 @@
         <v>1.18264240376983</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.00193812791258097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3266,7 +3268,7 @@
         <v>1.96575196673898</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0.0114489910192788</v>
+        <v>0.146308375735772</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3279,7 @@
         <v>0.0260971364433882</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.731810060795397</v>
+        <v>0.227480436893937</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3290,7 @@
         <v>0.592157412526656</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.62275125971064</v>
+        <v>0.34449339000073</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3299,7 +3301,7 @@
         <v>2.14851016208647</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.622893517836928</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3310,7 +3312,7 @@
         <v>1.02821354969032</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.204822481609881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3323,7 @@
         <v>2.05955800708485</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.838560770498589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,7 +3334,7 @@
         <v>-0.371034851576194</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.0923510785214603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3345,7 @@
         <v>0.598163874156374</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.216797351604328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3354,7 +3356,7 @@
         <v>-1.06128684188555</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0.505600379081443</v>
+        <v>0.014375330490733</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3367,7 @@
         <v>-2.66833543576115</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.184591342927888</v>
+        <v>0.387706720763221</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3376,7 +3378,7 @@
         <v>-0.496746457119601</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.585358717944473</v>
+        <v>0.0289586130957027</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3389,7 @@
         <v>2.64898028682431</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0.657135876594111</v>
+        <v>0.81828515290755</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3398,7 +3400,7 @@
         <v>-1.32212699678964</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.463908471399918</v>
+        <v>0.384055532211077</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3411,7 @@
         <v>-0.5270866516165</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.453692235751078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,7 +3422,7 @@
         <v>-3.5054261998048</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.250328800873831</v>
+        <v>0.863008411072186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,7 +3433,7 @@
         <v>0.625761557320928</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.334848163416609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3442,7 +3444,7 @@
         <v>-0.32348798290365</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.582465827930719</v>
+        <v>0.0653945570079221</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3455,7 @@
         <v>-1.64044751060377</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0.525954034877941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,7 +3466,7 @@
         <v>0.398789034275238</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0.0476970367599279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,7 +3477,7 @@
         <v>-1.22942982988199</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0.838783907704055</v>
+        <v>0.109729163802805</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3486,7 +3488,7 @@
         <v>-1.87222194636747</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.315229018684477</v>
+        <v>0.453045175613063</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3497,7 +3499,7 @@
         <v>-1.29302539275471</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.504670171765611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3508,7 +3510,7 @@
         <v>-1.40534692148413</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0.0128958139102906</v>
+        <v>0.802553734621484</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3519,7 +3521,7 @@
         <v>2.02965041681425</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.815936380065978</v>
+        <v>0.140865242330158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3530,7 +3532,7 @@
         <v>-3.15980257572836</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0.230353929335251</v>
+        <v>0.999767722856434</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,7 +3543,7 @@
         <v>-0.117752757774089</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0.516962629975751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3554,7 @@
         <v>-0.492340751734031</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0.734601029427722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,7 +3565,7 @@
         <v>4.01388413021937</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0.630358713911846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3576,7 @@
         <v>-3.25583319028606</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.597692940849811</v>
+        <v>0.433763408274278</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,7 +3587,7 @@
         <v>-2.46248378903554</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0.169687469722703</v>
+        <v>0.300518979102324</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3596,7 +3598,7 @@
         <v>-1.31635456455963</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.674443921539933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3607,7 +3609,7 @@
         <v>-1.19615978027451</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.869076933711767</v>
+        <v>0.0504902714643268</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3618,7 +3620,7 @@
         <v>0.274773129475039</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0.520931302336976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3631,7 @@
         <v>-0.724640517671776</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.423440993065015</v>
+        <v>0.03295361523191</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3642,7 @@
         <v>-1.8923408712893</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0.217430505901575</v>
+        <v>0.201516955237575</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3651,7 +3653,7 @@
         <v>0.203706297226195</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0.23681208002381</v>
+        <v>0.203629343966385</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,7 +3664,7 @@
         <v>1.40618373001643</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0.256475220434368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3673,7 +3675,7 @@
         <v>-2.32949663493415</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0.701991246081889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3684,7 +3686,7 @@
         <v>0.367975215205171</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.915129854576662</v>
+        <v>0.339932938805517</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,7 +3697,7 @@
         <v>1.5457715454395</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.0396247445605695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,7 +3708,7 @@
         <v>4.30396167108895</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0.822393777780235</v>
+        <v>0.0942721587498107</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3719,7 @@
         <v>0.850869646331432</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0.523659159662202</v>
+        <v>0.708681366075103</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,7 +3730,7 @@
         <v>1.73998624054035</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0.921746218344197</v>
+        <v>0.0231770162242672</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3739,7 +3741,7 @@
         <v>0.412435936230875</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0.074077142868191</v>
+        <v>0.0978943006853942</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,7 +3752,7 @@
         <v>-1.18007289580768</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>0.216172523098066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3763,7 @@
         <v>1.27053228201119</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0.238087400328368</v>
+        <v>0.0534331748836245</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,7 +3774,7 @@
         <v>0.657665407639064</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.52886356622912</v>
+        <v>0.261531122612155</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3783,7 +3785,7 @@
         <v>-2.2292535363202</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0.0784371984191239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,7 +3796,7 @@
         <v>-0.940859479252245</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.262355671031401</v>
+        <v>0.0129739823461614</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3805,7 +3807,7 @@
         <v>-4.34857396490807</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0.828683991916478</v>
+        <v>0.72468193243534</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,7 +3818,7 @@
         <v>-1.657258234445</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0.940090176416561</v>
+        <v>0.354550059972663</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3827,7 +3829,7 @@
         <v>0.167250982964789</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0.975282796658576</v>
+        <v>0.085508720973733</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3838,7 +3840,7 @@
         <v>-0.102556034813478</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>0.490919809322804</v>
+        <v>0.928061705065528</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3849,7 +3851,7 @@
         <v>2.27736956335797</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0.755385435186327</v>
+        <v>0.00635848504646841</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,7 +3862,7 @@
         <v>-3.19620287414754</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0.814512912416831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3871,7 +3873,7 @@
         <v>-1.54079790488754</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.872475913725793</v>
+        <v>0.836973911422573</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,7 +3884,7 @@
         <v>0.413627607870733</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.639593612868339</v>
+        <v>0.210252526189748</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3895,7 @@
         <v>-0.622396786539604</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0.531869590980932</v>
+        <v>0.0838552073689065</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3906,7 @@
         <v>1.98032202858847</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>0.557643287349492</v>
+        <v>0.277332879194866</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3915,7 +3917,7 @@
         <v>0.50712175983506</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>0.196457716170698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3926,7 +3928,7 @@
         <v>-0.167549390562357</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>0.534771885490045</v>
+        <v>0.501003599614741</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3937,7 +3939,7 @@
         <v>-2.30851215344261</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.0924319392070174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +3950,7 @@
         <v>2.46841296833865</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>0.869706132914871</v>
+        <v>0.221651485121591</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3959,7 +3961,7 @@
         <v>3.36150487477888</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>0.0552976045291871</v>
+        <v>0.590758487895614</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3970,7 +3972,7 @@
         <v>0.103784408944042</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.414521081838757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,7 +3983,7 @@
         <v>4.65214019351982</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>0.452359931310639</v>
+        <v>0.170129050932294</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,7 +3994,7 @@
         <v>1.09423721983717</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>0.366791461594403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4003,7 +4005,7 @@
         <v>-1.30787723245155</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>0.615481900516897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4014,7 +4016,7 @@
         <v>-1.85508305572054</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>0.68339296313934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4025,7 +4027,7 @@
         <v>1.5946867925796</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.306355490582064</v>
+        <v>0.140377156201183</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4036,7 +4038,7 @@
         <v>-3.26015050724918</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0.508358562598005</v>
+        <v>0.0531524840261926</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,7 +4049,7 @@
         <v>-2.60222400609034</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.190260889707133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4058,7 +4060,7 @@
         <v>0.406037576469243</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.118858511559665</v>
+        <v>0.146268423284328</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,7 +4071,7 @@
         <v>-1.84233914704272</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0.208862571045756</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,7 +4082,7 @@
         <v>0.0431542606040526</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0.487045698100701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,7 +4093,7 @@
         <v>0.319637397939375</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0.249952980084345</v>
+        <v>0.77156963093781</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4102,7 +4104,7 @@
         <v>-3.04085590288969</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>0.89623115491122</v>
+        <v>0.00368923270539672</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,7 +4115,7 @@
         <v>-1.28607928756728</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.757258565397933</v>
+        <v>0.519326040130719</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,7 +4126,7 @@
         <v>-0.82077580489919</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>0.754790095379576</v>
+        <v>0.00646053047745606</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4137,7 @@
         <v>-1.07533037184555</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.416223890846595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4146,7 +4148,7 @@
         <v>-0.261989002803213</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>0.0552664783317596</v>
+        <v>0.000356716374124854</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,7 +4159,7 @@
         <v>-2.68439765526372</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>0.0650970616843551</v>
+        <v>0.0154301507982225</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4170,7 @@
         <v>0.497974665403811</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>0.643108143936843</v>
+        <v>0.000192474133212511</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,7 +4181,7 @@
         <v>-0.181527428312855</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>0.906348193064332</v>
+        <v>0.817522894850702</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +4192,7 @@
         <v>1.50590066457916</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>0.55255812429823</v>
+        <v>0.103934265992317</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,7 +4203,7 @@
         <v>1.05025902984948</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.392953919479623</v>
+        <v>0.356294481786187</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4212,7 +4214,7 @@
         <v>-3.48144225781802</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.00912898778915405</v>
+        <v>0.260356594678136</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4223,7 +4225,7 @@
         <v>-1.96731030502522</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.0757004050537944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4234,7 +4236,7 @@
         <v>-2.17634615418276</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.867702190531418</v>
+        <v>0.118933452290514</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,7 +4247,7 @@
         <v>-0.0117081038888806</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>0.571276017930359</v>
+        <v>0.158667778395129</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4258,7 @@
         <v>-0.227552079473583</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>0.0521780257113278</v>
+        <v>0.891730402626655</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4267,7 +4269,7 @@
         <v>-0.00511710284716329</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>0.519745419034734</v>
+        <v>0.893688514995176</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,7 +4280,7 @@
         <v>1.59252917054584</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>0.892534392653033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4289,7 +4291,7 @@
         <v>4.51979789845812</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.20253846142441</v>
+        <v>4.40806322891927E-005</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4300,7 +4302,7 @@
         <v>-0.966431385005703</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>0.677159385057166</v>
+        <v>0.000546933876826277</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,7 +4313,7 @@
         <v>-0.0916369123738711</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>0.203708377666771</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4324,7 @@
         <v>-4.48930944029318</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0.654270419618115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4333,7 +4335,7 @@
         <v>0.867076568253378</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>0.770234834868461</v>
+        <v>0.14329934806771</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +4346,7 @@
         <v>0.47845139300828</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>0.0722787666600198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4355,7 +4357,7 @@
         <v>-1.03113857033185</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>0.44157452788204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4366,7 +4368,7 @@
         <v>-0.544413005419643</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>0.171575572807342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4377,7 +4379,7 @@
         <v>-2.54112053926885</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>0.219555420568213</v>
+        <v>0.106618535079993</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,7 +4390,7 @@
         <v>-0.0985519845545811</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0.418564877239987</v>
+        <v>0.515602555001796</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4399,7 +4401,7 @@
         <v>0.283090367483073</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>0.672916377196088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4410,7 +4412,7 @@
         <v>0.813474576965588</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.807699620723724</v>
+        <v>0.0982962057381752</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4421,7 +4423,7 @@
         <v>2.42700942664677</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>0.844510475872085</v>
+        <v>0.639848844336651</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4434,7 @@
         <v>-0.182739006148618</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>0.377766418037936</v>
+        <v>0.293019039335937</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4445,7 @@
         <v>-1.65874463855556</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>0.659704726655036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4454,7 +4456,7 @@
         <v>-0.124053459681197</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>0.965037637157366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4465,7 +4467,7 @@
         <v>0.093389725354438</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>0.975418176036328</v>
+        <v>0.031856879243552</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4476,7 +4478,7 @@
         <v>0.734957409916715</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>0.859216759214178</v>
+        <v>0.432635609644707</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4487,7 +4489,7 @@
         <v>-0.876327289948335</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>0.671626145252958</v>
+        <v>0.0867064055721239</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,7 +4500,7 @@
         <v>-1.41894225203079</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>0.911186078330502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4511,7 @@
         <v>1.02016958904336</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>0.596673420397565</v>
+        <v>0.106350374679355</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4522,7 @@
         <v>-1.56964177591365</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>0.434658941812813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4531,7 +4533,7 @@
         <v>3.50939496941367</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>0.95093270833604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4544,7 @@
         <v>-1.53887081720428</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.766802339581773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,7 +4555,7 @@
         <v>1.62266606328277</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>0.822290418436751</v>
+        <v>0.0507651477485247</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4564,7 +4566,7 @@
         <v>0.282996419909044</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>0.631194317247719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4575,7 +4577,7 @@
         <v>-1.44114988129676</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>0.363211531192064</v>
+        <v>0.338493886258674</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,7 +4588,7 @@
         <v>-1.21356885237543</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>0.94907178147696</v>
+        <v>0.689683008405367</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4597,7 +4599,7 @@
         <v>-0.497115435397287</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>0.525500206509605</v>
+        <v>0.222763752332226</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4610,7 @@
         <v>0.793471958551346</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>0.935024589998648</v>
+        <v>0.255542256874716</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4619,7 +4621,7 @@
         <v>5.57301208726592</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>0.00658387900330126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,7 +4632,7 @@
         <v>-3.13254269596675</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.749891390791163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4641,7 +4643,7 @@
         <v>1.17754612266325</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>0.620205599814653</v>
+        <v>0.278383538108466</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,7 +4654,7 @@
         <v>-1.15066857018363</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>0.739455309230834</v>
+        <v>0.720769492623309</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,7 +4665,7 @@
         <v>-3.46962010678319</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0.930501023074612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,7 +4676,7 @@
         <v>-1.53223824643201</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>0.567585513461381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,7 +4687,7 @@
         <v>1.96722314672772</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>0.527637991122901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4698,7 @@
         <v>3.12750609599746</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>0.899699095636606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,7 +4709,7 @@
         <v>-0.743835878420694</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>0.912230234360322</v>
+        <v>0.800022067485434</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4718,7 +4720,7 @@
         <v>-4.03748494466741</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>0.94637392880395</v>
+        <v>0.0181425088213022</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4729,7 +4731,7 @@
         <v>2.01878558596183</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>0.522055410547182</v>
+        <v>0.35876820244629</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4740,7 +4742,7 @@
         <v>-2.34434729248463</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>0.144486211007461</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4751,7 +4753,7 @@
         <v>-5.50343444556221</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>0.337070666486397</v>
+        <v>9.29242659120108E-005</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4762,7 +4764,7 @@
         <v>0.207649134456805</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>0.402345711831003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4773,7 +4775,7 @@
         <v>0.0926863856175536</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>0.880229192087427</v>
+        <v>0.0449218050461522</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4786,7 @@
         <v>2.09022853696837</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>0.792295780498534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,7 +4797,7 @@
         <v>-1.18638019678635</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>0.25381215265952</v>
+        <v>0.00905455661235321</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,7 +4808,7 @@
         <v>-0.127173602014658</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>0.0820925808511674</v>
+        <v>0.373296216337983</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,7 +4819,7 @@
         <v>-1.0280960632522</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>0.820285476511344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4828,7 +4830,7 @@
         <v>-0.382148347028564</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>0.457838258007541</v>
+        <v>0.869169172545083</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,7 +4841,7 @@
         <v>0.58824273594536</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>0.31202330160886</v>
+        <v>0.257620176869836</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +4852,7 @@
         <v>-0.695620723217167</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>0.571712512290105</v>
+        <v>0.100044089211889</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,7 +4863,7 @@
         <v>-2.31769485628205</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>0.08526506787166</v>
+        <v>0.153733889267495</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,7 +4874,7 @@
         <v>-1.82526063949318</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>0.548335411818698</v>
+        <v>0.0991741188344925</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4885,7 @@
         <v>-1.95272176921515</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>0.436697921715677</v>
+        <v>0.0293553608847013</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4894,7 +4896,7 @@
         <v>-0.138966556139092</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>0.702060664072633</v>
+        <v>0.118052377199289</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,7 +4907,7 @@
         <v>-1.67486939628274</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>0.992565602296963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4916,7 +4918,7 @@
         <v>1.84307039516131</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>0.90818918030709</v>
+        <v>0.553980044687551</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,7 +4929,7 @@
         <v>0.788986419661994</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>0.421590167796239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,7 +4940,7 @@
         <v>-2.708789649638</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>0.141832168679684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4949,7 +4951,7 @@
         <v>2.25335677577775</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>0.606565182097256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,7 +4962,7 @@
         <v>2.30634216493003</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>0.191448409575969</v>
+        <v>0.0690471664810692</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4971,7 +4973,7 @@
         <v>-1.17973052369711</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>0.961685527348891</v>
+        <v>0.08896713619005</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4982,7 +4984,7 @@
         <v>3.30047606202087</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>0.147529299836606</v>
+        <v>0.341861041898184</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,7 +4995,7 @@
         <v>0.723772391455793</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>0.165672309929505</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5004,7 +5006,7 @@
         <v>-2.39310971532359</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>0.646150380373001</v>
+        <v>0.899544688370926</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5015,7 +5017,7 @@
         <v>0.439222794197804</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>0.272809764835984</v>
+        <v>0.251568389191901</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5026,7 +5028,7 @@
         <v>-0.382293819356979</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>0.926020389422774</v>
+        <v>0.00527797803893495</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,7 +5039,7 @@
         <v>-0.516315150516061</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>0.180388351203874</v>
+        <v>0.700788333614703</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5050,7 @@
         <v>0.9491535871791</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>0.482434928417206</v>
+        <v>0.0508220428095383</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,7 +5061,7 @@
         <v>-0.7951841143344</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>0.477154725464061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,7 +5072,7 @@
         <v>0.43105306126016</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>0.697534527163953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,7 +5083,7 @@
         <v>1.46780107740587</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>0.33165761269629</v>
+        <v>0.00309521349981589</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5092,7 +5094,7 @@
         <v>-1.24546586665255</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>0.778939771698788</v>
+        <v>0.0530304921886127</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5105,7 @@
         <v>3.23378662726722</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>0.490455022314563</v>
+        <v>0.0238092652362055</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5114,7 +5116,7 @@
         <v>-0.46194055284961</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>0.688619945198298</v>
+        <v>0.477977159637964</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5127,7 @@
         <v>-0.30502484579174</v>
       </c>
       <c r="C181" s="0" t="n">
-        <v>0.445345405489206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5138,7 @@
         <v>2.78042034823945</v>
       </c>
       <c r="C182" s="0" t="n">
-        <v>0.323915796587244</v>
+        <v>0.838942697486639</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,7 +5149,7 @@
         <v>-2.54957458663454</v>
       </c>
       <c r="C183" s="0" t="n">
-        <v>0.685169179923832</v>
+        <v>0.165349044414374</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +5160,7 @@
         <v>-4.39298064060249</v>
       </c>
       <c r="C184" s="0" t="n">
-        <v>0.594123317394406</v>
+        <v>0.360755243225565</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,7 +5171,7 @@
         <v>-0.734127433250522</v>
       </c>
       <c r="C185" s="0" t="n">
-        <v>0.512666208902374</v>
+        <v>0.244747754089612</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5180,7 +5182,7 @@
         <v>0.126922269330942</v>
       </c>
       <c r="C186" s="0" t="n">
-        <v>0.0492989625781775</v>
+        <v>0.00385974089244218</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,7 +5193,7 @@
         <v>0.786188855166429</v>
       </c>
       <c r="C187" s="0" t="n">
-        <v>0.261419851565734</v>
+        <v>0.883439169026834</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5202,7 +5204,7 @@
         <v>-3.14656868339536</v>
       </c>
       <c r="C188" s="0" t="n">
-        <v>0.797737543936819</v>
+        <v>0.391802871492627</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5213,7 +5215,7 @@
         <v>1.24748281231683</v>
       </c>
       <c r="C189" s="0" t="n">
-        <v>0.718862072099</v>
+        <v>0.10268298797856</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5226,7 @@
         <v>-0.215416572035982</v>
       </c>
       <c r="C190" s="0" t="n">
-        <v>0.152428450528532</v>
+        <v>0.382492994381722</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,7 +5237,7 @@
         <v>-1.14803685098606</v>
       </c>
       <c r="C191" s="0" t="n">
-        <v>0.0210115716326982</v>
+        <v>0.297736282075299</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,7 +5248,7 @@
         <v>-0.95370261551922</v>
       </c>
       <c r="C192" s="0" t="n">
-        <v>0.652525762328878</v>
+        <v>0.00945531696003252</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5259,7 @@
         <v>3.16020174904478</v>
       </c>
       <c r="C193" s="0" t="n">
-        <v>0.41305493703112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5270,7 @@
         <v>4.31325672373866</v>
       </c>
       <c r="C194" s="0" t="n">
-        <v>0.758787117898464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,7 +5281,7 @@
         <v>0.530223934065074</v>
       </c>
       <c r="C195" s="0" t="n">
-        <v>0.209500970086083</v>
+        <v>0.0467951505941552</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5290,7 +5292,7 @@
         <v>0.590859939543268</v>
       </c>
       <c r="C196" s="0" t="n">
-        <v>0.975654486101121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5301,7 +5303,7 @@
         <v>5.63118262615603</v>
       </c>
       <c r="C197" s="0" t="n">
-        <v>0.198852359084412</v>
+        <v>0.0442668400252659</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5314,7 @@
         <v>-2.32155576567692</v>
       </c>
       <c r="C198" s="0" t="n">
-        <v>0.188169214874506</v>
+        <v>0.719818142820049</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5323,7 +5325,7 @@
         <v>7.33556598376992</v>
       </c>
       <c r="C199" s="0" t="n">
-        <v>0.343700041295961</v>
+        <v>0.222244009011426</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,7 +5336,7 @@
         <v>-4.03656949960079</v>
       </c>
       <c r="C200" s="0" t="n">
-        <v>0.903120999922976</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,7 +5347,7 @@
         <v>-0.503084280356099</v>
       </c>
       <c r="C201" s="0" t="n">
-        <v>0.51520769810304</v>
+        <v>0.0260142814982899</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5356,7 +5358,7 @@
         <v>0.101677966427326</v>
       </c>
       <c r="C202" s="0" t="n">
-        <v>0.142907140310854</v>
+        <v>0.80473129920264</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,7 +5369,7 @@
         <v>2.28566269343514</v>
       </c>
       <c r="C203" s="0" t="n">
-        <v>0.0371503788046539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,7 +5380,7 @@
         <v>0.264711005729845</v>
       </c>
       <c r="C204" s="0" t="n">
-        <v>0.663940849015489</v>
+        <v>0.420994652961464</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,7 +5391,7 @@
         <v>0.277958584779904</v>
       </c>
       <c r="C205" s="0" t="n">
-        <v>0.0429933543782681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5402,7 @@
         <v>-0.945090719543811</v>
       </c>
       <c r="C206" s="0" t="n">
-        <v>0.542148116976023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,7 +5413,7 @@
         <v>0.327774499318917</v>
       </c>
       <c r="C207" s="0" t="n">
-        <v>0.874513176036999</v>
+        <v>0.931006466758658</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5424,7 @@
         <v>-0.148584364466444</v>
       </c>
       <c r="C208" s="0" t="n">
-        <v>0.620603792602196</v>
+        <v>0.972398102809732</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5435,7 @@
         <v>-1.62165334093687</v>
       </c>
       <c r="C209" s="0" t="n">
-        <v>0.819794666254893</v>
+        <v>0.433629600783119</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5444,7 +5446,7 @@
         <v>-0.46671611556069</v>
       </c>
       <c r="C210" s="0" t="n">
-        <v>0.96172525244765</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,7 +5457,7 @@
         <v>2.27012446640657</v>
       </c>
       <c r="C211" s="0" t="n">
-        <v>0.25986833195202</v>
+        <v>0.0697526940946208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,7 +5468,7 @@
         <v>-0.663556857752818</v>
       </c>
       <c r="C212" s="0" t="n">
-        <v>0.406347075477243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,7 +5479,7 @@
         <v>0.457524051375631</v>
       </c>
       <c r="C213" s="0" t="n">
-        <v>0.459712497657165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5490,7 @@
         <v>-2.49617402478882</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>0.763978923438117</v>
+        <v>0.92106745020887</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,7 +5501,7 @@
         <v>1.37642850627478</v>
       </c>
       <c r="C215" s="0" t="n">
-        <v>0.531193570932373</v>
+        <v>0.16173533831367</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,7 +5512,7 @@
         <v>-0.809156899244427</v>
       </c>
       <c r="C216" s="0" t="n">
-        <v>0.467985985102132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,7 +5523,7 @@
         <v>0.548861214520134</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>0.329916678834707</v>
+        <v>0.0701142593700038</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,7 +5534,7 @@
         <v>-0.582403350450243</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>0.13395227631554</v>
+        <v>0.0883450135079568</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,7 +5545,7 @@
         <v>-0.132178351725407</v>
       </c>
       <c r="C219" s="0" t="n">
-        <v>0.207995269447565</v>
+        <v>0.208565067877708</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,7 +5556,7 @@
         <v>0.845692771816633</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>0.590586499543861</v>
+        <v>0.132013549511971</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,7 +5567,7 @@
         <v>-0.331021388065771</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>0.477016028948128</v>
+        <v>0.0913599358015912</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5578,7 @@
         <v>1.31383413686346</v>
       </c>
       <c r="C222" s="0" t="n">
-        <v>0.263665014412254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5589,7 @@
         <v>2.14159816141179</v>
       </c>
       <c r="C223" s="0" t="n">
-        <v>0.633644281886518</v>
+        <v>6.45794052553851E-005</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,7 +5600,7 @@
         <v>-3.89286028654824</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>0.504159642849118</v>
+        <v>0.0439726621544799</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5611,7 @@
         <v>3.83251544734684</v>
       </c>
       <c r="C225" s="0" t="n">
-        <v>0.291487189941108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,7 +5622,7 @@
         <v>-0.599328191478594</v>
       </c>
       <c r="C226" s="0" t="n">
-        <v>0.743085216730833</v>
+        <v>0.0363498474424231</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,7 +5633,7 @@
         <v>-6.44644462259955</v>
       </c>
       <c r="C227" s="0" t="n">
-        <v>0.287919121794403</v>
+        <v>0.927792089924941</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,7 +5644,7 @@
         <v>1.7010879100933</v>
       </c>
       <c r="C228" s="0" t="n">
-        <v>0.953100570710376</v>
+        <v>0.0704760715093729</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,7 +5655,7 @@
         <v>-0.14948678427159</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>0.802042181137949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5666,7 @@
         <v>-0.796670351594455</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>0.442421208601445</v>
+        <v>0.277376765501063</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,7 +5677,7 @@
         <v>-1.04848175785405</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>0.511654814705253</v>
+        <v>0.126149637615558</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,7 +5688,7 @@
         <v>1.87583864456539</v>
       </c>
       <c r="C232" s="0" t="n">
-        <v>0.801987828454003</v>
+        <v>0.939619556423888</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5699,7 @@
         <v>1.58766304877655</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>0.858331457478926</v>
+        <v>0.292992555529687</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,7 +5710,7 @@
         <v>1.04979027181503</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>0.206288884393871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,7 +5721,7 @@
         <v>2.96812276068022</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>0.902547994628549</v>
+        <v>0.403332330927592</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,7 +5732,7 @@
         <v>-3.15431503353302</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>0.624131011543795</v>
+        <v>0.154581024964306</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,7 +5743,7 @@
         <v>0.941534115181807</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>0.627437441842631</v>
+        <v>0.436270037031229</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5754,7 @@
         <v>-2.85038498566709</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>0.770546720828861</v>
+        <v>0.0957827906510801</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5763,7 +5765,7 @@
         <v>2.09490602527655</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>0.793231494259089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,7 +5776,7 @@
         <v>2.8298834528106</v>
       </c>
       <c r="C240" s="0" t="n">
-        <v>0.497858174145222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,7 +5787,7 @@
         <v>-0.17970888747089</v>
       </c>
       <c r="C241" s="0" t="n">
-        <v>0.214745401870459</v>
+        <v>0.821886420630664</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,7 +5798,7 @@
         <v>0.447730770607549</v>
       </c>
       <c r="C242" s="0" t="n">
-        <v>0.978131691692397</v>
+        <v>0.357525496675832</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,7 +5809,7 @@
         <v>0.694869152856141</v>
       </c>
       <c r="C243" s="0" t="n">
-        <v>0.0682761275675148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,7 +5820,7 @@
         <v>0.988392449503362</v>
       </c>
       <c r="C244" s="0" t="n">
-        <v>0.0717136799357832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5831,7 @@
         <v>-0.972559578643236</v>
       </c>
       <c r="C245" s="0" t="n">
-        <v>0.411764369579032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5840,7 +5842,7 @@
         <v>-0.374521246820978</v>
       </c>
       <c r="C246" s="0" t="n">
-        <v>0.306931471452117</v>
+        <v>0.000678615598055788</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,7 +5853,7 @@
         <v>-0.218504070639913</v>
       </c>
       <c r="C247" s="0" t="n">
-        <v>0.197224640054628</v>
+        <v>0.877230467436193</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,7 +5864,7 @@
         <v>-1.87433041835448</v>
       </c>
       <c r="C248" s="0" t="n">
-        <v>0.151979395654053</v>
+        <v>0.465761941176921</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,7 +5875,7 @@
         <v>-2.90530002250862</v>
       </c>
       <c r="C249" s="0" t="n">
-        <v>0.725901449332014</v>
+        <v>0.838147058872564</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5884,7 +5886,7 @@
         <v>1.72370246224133</v>
       </c>
       <c r="C250" s="0" t="n">
-        <v>0.928292797645554</v>
+        <v>0.815648308799265</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,7 +5897,7 @@
         <v>-3.96717462714558</v>
       </c>
       <c r="C251" s="0" t="n">
-        <v>0.619808238232508</v>
+        <v>0.185097254091564</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,7 +5908,7 @@
         <v>1.5963865381553</v>
       </c>
       <c r="C252" s="0" t="n">
-        <v>0.262451629387215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,7 +5919,7 @@
         <v>-2.8606304424636</v>
       </c>
       <c r="C253" s="0" t="n">
-        <v>0.332318775355816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,7 +5930,7 @@
         <v>3.05990697175652</v>
       </c>
       <c r="C254" s="0" t="n">
-        <v>0.0352270142175257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,7 +5941,7 @@
         <v>-1.33843468526502</v>
       </c>
       <c r="C255" s="0" t="n">
-        <v>0.216318838996813</v>
+        <v>0.0088607997203696</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,7 +5952,7 @@
         <v>-0.479880639037286</v>
       </c>
       <c r="C256" s="0" t="n">
-        <v>0.106230214936659</v>
+        <v>0.00719553112400406</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5961,7 +5963,7 @@
         <v>2.6824814511153</v>
       </c>
       <c r="C257" s="0" t="n">
-        <v>0.111382848350331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,7 +5974,7 @@
         <v>0.573154570794368</v>
       </c>
       <c r="C258" s="0" t="n">
-        <v>0.0615007828455418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,7 +5985,7 @@
         <v>-3.09193565274698</v>
       </c>
       <c r="C259" s="0" t="n">
-        <v>0.734191173687577</v>
+        <v>0.475597819487211</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,7 +5996,7 @@
         <v>-1.2666296538806</v>
       </c>
       <c r="C260" s="0" t="n">
-        <v>0.777233772678301</v>
+        <v>0.576566781220711</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,7 +6007,7 @@
         <v>-3.30303058050088</v>
       </c>
       <c r="C261" s="0" t="n">
-        <v>0.800453155767173</v>
+        <v>0.0089118199129323</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,7 +6018,7 @@
         <v>-0.386465959134746</v>
       </c>
       <c r="C262" s="0" t="n">
-        <v>0.241736680967733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,7 +6029,7 @@
         <v>3.20078917804232</v>
       </c>
       <c r="C263" s="0" t="n">
-        <v>0.17928433092311</v>
+        <v>0.553472449255561</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6038,7 +6040,7 @@
         <v>1.50040239644781</v>
       </c>
       <c r="C264" s="0" t="n">
-        <v>0.282568784430623</v>
+        <v>0.0851889778001233</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,7 +6051,7 @@
         <v>-3.76987696210021</v>
       </c>
       <c r="C265" s="0" t="n">
-        <v>0.23343179305084</v>
+        <v>0.0287999856471611</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6060,7 +6062,7 @@
         <v>0.651321081795601</v>
       </c>
       <c r="C266" s="0" t="n">
-        <v>0.0245923413895071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,7 +6073,7 @@
         <v>-2.48925199184834</v>
       </c>
       <c r="C267" s="0" t="n">
-        <v>0.282333674607798</v>
+        <v>0.110025352639958</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,7 +6084,7 @@
         <v>0.685122931432333</v>
       </c>
       <c r="C268" s="0" t="n">
-        <v>0.325926825404167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6093,7 +6095,7 @@
         <v>-1.25945373732567</v>
       </c>
       <c r="C269" s="0" t="n">
-        <v>0.729137199698016</v>
+        <v>2.67841602118806E-005</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,7 +6106,7 @@
         <v>0.666302482675952</v>
       </c>
       <c r="C270" s="0" t="n">
-        <v>0.233207643963397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6115,7 +6117,7 @@
         <v>-3.34291017407834</v>
       </c>
       <c r="C271" s="0" t="n">
-        <v>0.952507949434221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6126,7 +6128,7 @@
         <v>-1.76546012509053</v>
       </c>
       <c r="C272" s="0" t="n">
-        <v>0.915508341044188</v>
+        <v>0.0448723411214397</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,7 +6139,7 @@
         <v>-1.67469370911359</v>
       </c>
       <c r="C273" s="0" t="n">
-        <v>0.549281373154372</v>
+        <v>0.725160962459944</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,7 +6150,7 @@
         <v>-1.11462660040632</v>
       </c>
       <c r="C274" s="0" t="n">
-        <v>0.527293995954096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,7 +6161,7 @@
         <v>-0.22826964661543</v>
       </c>
       <c r="C275" s="0" t="n">
-        <v>0.791743091540411</v>
+        <v>0.286207158688432</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6170,7 +6172,7 @@
         <v>1.6050752966523</v>
       </c>
       <c r="C276" s="0" t="n">
-        <v>0.550470183370635</v>
+        <v>0.525900502514803</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +6183,7 @@
         <v>-0.00374081338088979</v>
       </c>
       <c r="C277" s="0" t="n">
-        <v>0.669186553219333</v>
+        <v>0.102911750883152</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6192,7 +6194,7 @@
         <v>-1.34894802621538</v>
       </c>
       <c r="C278" s="0" t="n">
-        <v>0.790034030564129</v>
+        <v>0.00398905101866405</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6203,7 +6205,7 @@
         <v>-0.0853409254309315</v>
       </c>
       <c r="C279" s="0" t="n">
-        <v>0.602679143892601</v>
+        <v>0.0325077907206587</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6216,7 @@
         <v>0.142974836556021</v>
       </c>
       <c r="C280" s="0" t="n">
-        <v>0.888024855637923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6225,7 +6227,7 @@
         <v>0.41465620615935</v>
       </c>
       <c r="C281" s="0" t="n">
-        <v>0.184690204216167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6236,7 +6238,7 @@
         <v>-2.69461096796273</v>
       </c>
       <c r="C282" s="0" t="n">
-        <v>0.645886911079288</v>
+        <v>0.0171562052588761</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,7 +6249,7 @@
         <v>0.0131095097205207</v>
       </c>
       <c r="C283" s="0" t="n">
-        <v>0.494362199213356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6258,7 +6260,7 @@
         <v>1.8844241638003</v>
       </c>
       <c r="C284" s="0" t="n">
-        <v>0.329383141826838</v>
+        <v>0.200937843141081</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6271,7 @@
         <v>-1.42424497970027</v>
       </c>
       <c r="C285" s="0" t="n">
-        <v>0.512562601361424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6280,7 +6282,7 @@
         <v>1.15196883803001</v>
       </c>
       <c r="C286" s="0" t="n">
-        <v>0.294719666009769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,7 +6293,7 @@
         <v>1.94209960066854</v>
       </c>
       <c r="C287" s="0" t="n">
-        <v>0.805252505000681</v>
+        <v>0.00147759745477707</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6302,7 +6304,7 @@
         <v>-0.182758314581268</v>
       </c>
       <c r="C288" s="0" t="n">
-        <v>0.565403911285102</v>
+        <v>0.362051394519247</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,7 +6315,7 @@
         <v>0.636579669041146</v>
       </c>
       <c r="C289" s="0" t="n">
-        <v>0.587558462051675</v>
+        <v>0.0106178021822085</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6324,7 +6326,7 @@
         <v>1.95462128071463</v>
       </c>
       <c r="C290" s="0" t="n">
-        <v>0.827290680026636</v>
+        <v>0.0213867427341242</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,7 +6337,7 @@
         <v>-2.41959236439363</v>
       </c>
       <c r="C291" s="0" t="n">
-        <v>0.852495756465942</v>
+        <v>0.38284721066082</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6346,7 +6348,7 @@
         <v>-0.988230878371732</v>
       </c>
       <c r="C292" s="0" t="n">
-        <v>0.409821152221411</v>
+        <v>0.144339988138945</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,7 +6359,7 @@
         <v>2.29722371508451</v>
       </c>
       <c r="C293" s="0" t="n">
-        <v>0.0787794145289809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,7 +6370,7 @@
         <v>-0.565632857751642</v>
       </c>
       <c r="C294" s="0" t="n">
-        <v>0.332962943473831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,7 +6381,7 @@
         <v>3.35176855853193</v>
       </c>
       <c r="C295" s="0" t="n">
-        <v>0.289477401180193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,7 +6392,7 @@
         <v>-1.57132888361878</v>
       </c>
       <c r="C296" s="0" t="n">
-        <v>0.87494291132316</v>
+        <v>0.275599514648989</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,7 +6403,7 @@
         <v>-3.08546131158494</v>
       </c>
       <c r="C297" s="0" t="n">
-        <v>0.11082413024269</v>
+        <v>0.0673254410745422</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,7 +6414,7 @@
         <v>0.714052596718846</v>
       </c>
       <c r="C298" s="0" t="n">
-        <v>0.0723308001179248</v>
+        <v>0.451775221933713</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6423,7 +6425,7 @@
         <v>1.89424097927247</v>
       </c>
       <c r="C299" s="0" t="n">
-        <v>0.891486042877659</v>
+        <v>0.0135410458242871</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6436,7 @@
         <v>-3.00931040106035</v>
       </c>
       <c r="C300" s="0" t="n">
-        <v>0.463211965048686</v>
+        <v>0.024667415012957</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,7 +6447,7 @@
         <v>-2.31213703415414</v>
       </c>
       <c r="C301" s="0" t="n">
-        <v>0.170022698584944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6456,7 +6458,7 @@
         <v>0.554219060305944</v>
       </c>
       <c r="C302" s="0" t="n">
-        <v>0.850087181897834</v>
+        <v>0.0567123618270137</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,7 +6469,7 @@
         <v>1.48141193321592</v>
       </c>
       <c r="C303" s="0" t="n">
-        <v>0.554729927098379</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6478,7 +6480,7 @@
         <v>1.85030048489264</v>
       </c>
       <c r="C304" s="0" t="n">
-        <v>0.982476866804063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,7 +6491,7 @@
         <v>-1.4374300486041</v>
       </c>
       <c r="C305" s="0" t="n">
-        <v>0.140162896132097</v>
+        <v>0.198088646509678</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6500,7 +6502,7 @@
         <v>-1.91096403574112</v>
       </c>
       <c r="C306" s="0" t="n">
-        <v>0.623067826731131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,7 +6513,7 @@
         <v>0.817982395016797</v>
       </c>
       <c r="C307" s="0" t="n">
-        <v>0.313913902966306</v>
+        <v>0.154193355903946</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6522,7 +6524,7 @@
         <v>3.21190459772954</v>
       </c>
       <c r="C308" s="0" t="n">
-        <v>0.952214119024575</v>
+        <v>0.311548887375828</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,7 +6535,7 @@
         <v>-1.64914832375502</v>
       </c>
       <c r="C309" s="0" t="n">
-        <v>0.258293195394799</v>
+        <v>0.262283077460391</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,7 +6546,7 @@
         <v>-0.762796750815297</v>
       </c>
       <c r="C310" s="0" t="n">
-        <v>0.521959521342069</v>
+        <v>0.894476218839996</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,7 +6557,7 @@
         <v>-0.31740618705737</v>
       </c>
       <c r="C311" s="0" t="n">
-        <v>0.170762122841552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6566,7 +6568,7 @@
         <v>-2.81536104384106</v>
       </c>
       <c r="C312" s="0" t="n">
-        <v>0.180705454433337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +6579,7 @@
         <v>-1.46689419817686</v>
       </c>
       <c r="C313" s="0" t="n">
-        <v>0.203900428023189</v>
+        <v>0.001045944797362</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6588,7 +6590,7 @@
         <v>0.326575047178955</v>
       </c>
       <c r="C314" s="0" t="n">
-        <v>0.79873078991659</v>
+        <v>0.041259050961531</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,7 +6601,7 @@
         <v>3.69759014171463</v>
       </c>
       <c r="C315" s="0" t="n">
-        <v>0.0636182955931872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6610,7 +6612,7 @@
         <v>-2.15026091815152</v>
       </c>
       <c r="C316" s="0" t="n">
-        <v>0.475087329512462</v>
+        <v>0.748231663634563</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6621,7 +6623,7 @@
         <v>1.15122213865209</v>
       </c>
       <c r="C317" s="0" t="n">
-        <v>0.331680853385478</v>
+        <v>0.0857782636224072</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6632,7 +6634,7 @@
         <v>-1.20838430604087</v>
       </c>
       <c r="C318" s="0" t="n">
-        <v>0.118623060639948</v>
+        <v>5.22948162459284E-005</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6643,7 +6645,7 @@
         <v>5.18347218131364</v>
       </c>
       <c r="C319" s="0" t="n">
-        <v>0.411120689474046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,7 +6656,7 @@
         <v>0.890366846157467</v>
       </c>
       <c r="C320" s="0" t="n">
-        <v>0.788273667916655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,7 +6667,7 @@
         <v>-1.27353867953847</v>
       </c>
       <c r="C321" s="0" t="n">
-        <v>0.713297533569858</v>
+        <v>0.9185148858508</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6676,7 +6678,7 @@
         <v>-1.02867054001326</v>
       </c>
       <c r="C322" s="0" t="n">
-        <v>0.454048689920455</v>
+        <v>0.679900350249598</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,7 +6689,7 @@
         <v>1.0761439903485</v>
       </c>
       <c r="C323" s="0" t="n">
-        <v>0.226523661287501</v>
+        <v>0.0525966158606513</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,7 +6700,7 @@
         <v>2.49007708196901</v>
       </c>
       <c r="C324" s="0" t="n">
-        <v>0.613528392510489</v>
+        <v>0.000370633593175999</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6711,7 @@
         <v>0.271318681365271</v>
       </c>
       <c r="C325" s="0" t="n">
-        <v>0.580769125837833</v>
+        <v>0.279385017685012</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6720,7 +6722,7 @@
         <v>0.408964579328218</v>
       </c>
       <c r="C326" s="0" t="n">
-        <v>0.611519533675164</v>
+        <v>0.0250505541825742</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,7 +6733,7 @@
         <v>-1.03602964983783</v>
       </c>
       <c r="C327" s="0" t="n">
-        <v>0.543783128494397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,7 +6744,7 @@
         <v>-1.47361348753606</v>
       </c>
       <c r="C328" s="0" t="n">
-        <v>0.855852939886972</v>
+        <v>0.939758826162658</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6755,7 @@
         <v>-1.6500591075537</v>
       </c>
       <c r="C329" s="0" t="n">
-        <v>0.839758608723059</v>
+        <v>0.0374165459337063</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,7 +6766,7 @@
         <v>-2.6637534001254</v>
       </c>
       <c r="C330" s="0" t="n">
-        <v>0.926149480510503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6775,7 +6777,7 @@
         <v>0.416578925413381</v>
       </c>
       <c r="C331" s="0" t="n">
-        <v>0.241107245907187</v>
+        <v>0.0494588288592711</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6786,7 +6788,7 @@
         <v>-2.21062395632408</v>
       </c>
       <c r="C332" s="0" t="n">
-        <v>0.131094779120758</v>
+        <v>0.428319955689409</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,7 +6799,7 @@
         <v>-2.41182019514898</v>
       </c>
       <c r="C333" s="0" t="n">
-        <v>0.9974651618395</v>
+        <v>0.0857407452806148</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6808,7 +6810,7 @@
         <v>-1.47067511797814</v>
       </c>
       <c r="C334" s="0" t="n">
-        <v>0.499068506760523</v>
+        <v>0.417434528497601</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6819,7 +6821,7 @@
         <v>-0.287118527307592</v>
       </c>
       <c r="C335" s="0" t="n">
-        <v>0.773838675813749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6830,7 +6832,7 @@
         <v>0.613208117132601</v>
       </c>
       <c r="C336" s="0" t="n">
-        <v>0.382221417734399</v>
+        <v>0.858897310112062</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +6843,7 @@
         <v>-2.24689505620668</v>
       </c>
       <c r="C337" s="0" t="n">
-        <v>0.674873328767717</v>
+        <v>0.538183056666819</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6854,7 @@
         <v>-0.735797158044875</v>
       </c>
       <c r="C338" s="0" t="n">
-        <v>0.473209587158635</v>
+        <v>0.0626447694260866</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,7 +6865,7 @@
         <v>-0.577793809318712</v>
       </c>
       <c r="C339" s="0" t="n">
-        <v>0.991372164804488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6874,7 +6876,7 @@
         <v>-4.08282297781207</v>
       </c>
       <c r="C340" s="0" t="n">
-        <v>0.87533217924647</v>
+        <v>0.1166779120568</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,7 +6887,7 @@
         <v>0.000388669382293757</v>
       </c>
       <c r="C341" s="0" t="n">
-        <v>0.490709497593343</v>
+        <v>0.158307251430968</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6896,7 +6898,7 @@
         <v>0.823944854571381</v>
       </c>
       <c r="C342" s="0" t="n">
-        <v>0.730090288445354</v>
+        <v>0.00134885054541024</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6907,7 +6909,7 @@
         <v>0.155043056259399</v>
       </c>
       <c r="C343" s="0" t="n">
-        <v>0.773710532579571</v>
+        <v>0.529960498867864</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,7 +6920,7 @@
         <v>2.40298008497844</v>
       </c>
       <c r="C344" s="0" t="n">
-        <v>0.87194457417354</v>
+        <v>0.21418314511553</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,7 +6931,7 @@
         <v>-0.0877025468240063</v>
       </c>
       <c r="C345" s="0" t="n">
-        <v>0.299468707060441</v>
+        <v>0.11013205693385</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6940,7 +6942,7 @@
         <v>1.04374552940482</v>
       </c>
       <c r="C346" s="0" t="n">
-        <v>0.0670831892639399</v>
+        <v>0.0708619824512868</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,7 +6953,7 @@
         <v>-0.748020476870566</v>
       </c>
       <c r="C347" s="0" t="n">
-        <v>0.291152743855491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,7 +6964,7 @@
         <v>0.288389891914886</v>
       </c>
       <c r="C348" s="0" t="n">
-        <v>0.736228712368757</v>
+        <v>0.0865401737946773</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,7 +6975,7 @@
         <v>3.31144128486919</v>
       </c>
       <c r="C349" s="0" t="n">
-        <v>0.870110544608906</v>
+        <v>0.0105367105291477</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6984,7 +6986,7 @@
         <v>-0.206635428749259</v>
       </c>
       <c r="C350" s="0" t="n">
-        <v>0.383652192540467</v>
+        <v>0.0101669248972605</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,7 +6997,7 @@
         <v>-3.72821586434047</v>
       </c>
       <c r="C351" s="0" t="n">
-        <v>0.196019742637873</v>
+        <v>0.901649867718909</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7006,7 +7008,7 @@
         <v>0.0847351869776102</v>
       </c>
       <c r="C352" s="0" t="n">
-        <v>0.649038264062256</v>
+        <v>0.207970759357065</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7017,7 +7019,7 @@
         <v>-0.219970984990171</v>
       </c>
       <c r="C353" s="0" t="n">
-        <v>0.836453786119819</v>
+        <v>0.000132986785671302</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7028,7 +7030,7 @@
         <v>-6.24838203956197</v>
       </c>
       <c r="C354" s="0" t="n">
-        <v>0.502012430224568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7039,7 +7041,7 @@
         <v>0.487132309871547</v>
       </c>
       <c r="C355" s="0" t="n">
-        <v>0.66046751360409</v>
+        <v>0.42033651439189</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7050,7 +7052,7 @@
         <v>1.1528524715328</v>
       </c>
       <c r="C356" s="0" t="n">
-        <v>0.805335568729788</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,7 +7063,7 @@
         <v>1.16432939321929</v>
       </c>
       <c r="C357" s="0" t="n">
-        <v>0.0523250075057149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7072,7 +7074,7 @@
         <v>-0.352539909825502</v>
       </c>
       <c r="C358" s="0" t="n">
-        <v>0.605521204648539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7083,7 +7085,7 @@
         <v>-2.10823667056834</v>
       </c>
       <c r="C359" s="0" t="n">
-        <v>0.797993223415688</v>
+        <v>0.34377153132422</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7094,7 +7096,7 @@
         <v>-1.63034801619824</v>
       </c>
       <c r="C360" s="0" t="n">
-        <v>0.160860921721906</v>
+        <v>0.122957027837941</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7105,7 +7107,7 @@
         <v>-1.64443643760651</v>
       </c>
       <c r="C361" s="0" t="n">
-        <v>0.051199852488935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7116,7 +7118,7 @@
         <v>-3.09150178224092</v>
       </c>
       <c r="C362" s="0" t="n">
-        <v>0.155178080545738</v>
+        <v>0.89953416930685</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7127,7 +7129,7 @@
         <v>-0.119938162340836</v>
       </c>
       <c r="C363" s="0" t="n">
-        <v>0.649032844696194</v>
+        <v>0.368037063531028</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7138,7 +7140,7 @@
         <v>0.658967122270168</v>
       </c>
       <c r="C364" s="0" t="n">
-        <v>0.683667281875387</v>
+        <v>0.443112202568801</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,7 +7151,7 @@
         <v>-1.73938170207221</v>
       </c>
       <c r="C365" s="0" t="n">
-        <v>0.195621552644297</v>
+        <v>0.221931084941047</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7160,7 +7162,7 @@
         <v>0.382624464659483</v>
       </c>
       <c r="C366" s="0" t="n">
-        <v>0.742272135801613</v>
+        <v>0.00920816901090092</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,7 +7173,7 @@
         <v>-1.14227614485903</v>
       </c>
       <c r="C367" s="0" t="n">
-        <v>0.751056721899658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,7 +7184,7 @@
         <v>-0.332946351601704</v>
       </c>
       <c r="C368" s="0" t="n">
-        <v>0.777282217983156</v>
+        <v>0.473339242318715</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7193,7 +7195,7 @@
         <v>-1.56111963829006</v>
       </c>
       <c r="C369" s="0" t="n">
-        <v>0.177716808160767</v>
+        <v>0.0602491398020399</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7204,7 +7206,7 @@
         <v>0.788433528267985</v>
       </c>
       <c r="C370" s="0" t="n">
-        <v>0.95500194048509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7215,7 +7217,7 @@
         <v>-2.01534728085628</v>
       </c>
       <c r="C371" s="0" t="n">
-        <v>0.481913455761969</v>
+        <v>0.167516066106728</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7226,7 +7228,7 @@
         <v>3.76587101100846</v>
       </c>
       <c r="C372" s="0" t="n">
-        <v>0.844052033964545</v>
+        <v>0.163932588589986</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7239,7 @@
         <v>-0.395962352448454</v>
       </c>
       <c r="C373" s="0" t="n">
-        <v>0.400517593603581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,7 +7250,7 @@
         <v>1.0400911230637</v>
       </c>
       <c r="C374" s="0" t="n">
-        <v>0.353651364566758</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,7 +7261,7 @@
         <v>-1.44411089664694</v>
       </c>
       <c r="C375" s="0" t="n">
-        <v>0.761529510840774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,7 +7272,7 @@
         <v>-0.201032766182282</v>
       </c>
       <c r="C376" s="0" t="n">
-        <v>0.593600890832022</v>
+        <v>0.231181034740976</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7281,7 +7283,7 @@
         <v>-2.911050523859</v>
       </c>
       <c r="C377" s="0" t="n">
-        <v>0.0813331650570035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7292,7 +7294,7 @@
         <v>0.67443759516491</v>
       </c>
       <c r="C378" s="0" t="n">
-        <v>0.298704997869208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7303,7 +7305,7 @@
         <v>-4.49176576368569</v>
       </c>
       <c r="C379" s="0" t="n">
-        <v>0.294167007086799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7314,7 +7316,7 @@
         <v>2.85134173179173</v>
       </c>
       <c r="C380" s="0" t="n">
-        <v>0.305496367160231</v>
+        <v>5.88212454643843E-005</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7327,7 @@
         <v>-0.275403833432481</v>
       </c>
       <c r="C381" s="0" t="n">
-        <v>0.880244903033599</v>
+        <v>0.105863917716056</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7336,7 +7338,7 @@
         <v>1.46219428458929</v>
       </c>
       <c r="C382" s="0" t="n">
-        <v>0.12364021432586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7347,7 +7349,7 @@
         <v>1.25858101109513</v>
       </c>
       <c r="C383" s="0" t="n">
-        <v>0.659393776440993</v>
+        <v>0.0331516753623055</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,7 +7360,7 @@
         <v>0.434087244705677</v>
       </c>
       <c r="C384" s="0" t="n">
-        <v>0.645593994762749</v>
+        <v>0.923424638526674</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7369,7 +7371,7 @@
         <v>-0.689929518290594</v>
       </c>
       <c r="C385" s="0" t="n">
-        <v>0.574101438047364</v>
+        <v>0.466279015366146</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7380,7 +7382,7 @@
         <v>0.218716133310552</v>
       </c>
       <c r="C386" s="0" t="n">
-        <v>0.832557569956407</v>
+        <v>0.0744786819845824</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,7 +7393,7 @@
         <v>0.183748269487561</v>
       </c>
       <c r="C387" s="0" t="n">
-        <v>0.525927177630365</v>
+        <v>0.196583407562578</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7402,7 +7404,7 @@
         <v>-2.20997979854625</v>
       </c>
       <c r="C388" s="0" t="n">
-        <v>0.237086496548727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7413,7 +7415,7 @@
         <v>2.02719924738037</v>
       </c>
       <c r="C389" s="0" t="n">
-        <v>0.00909165060147643</v>
+        <v>0.0194170134392395</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7424,7 +7426,7 @@
         <v>-2.78125961084167</v>
       </c>
       <c r="C390" s="0" t="n">
-        <v>0.189963192213327</v>
+        <v>0.569258764292803</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7435,7 +7437,7 @@
         <v>-0.978050465297375</v>
       </c>
       <c r="C391" s="0" t="n">
-        <v>0.962523654801771</v>
+        <v>0.0513960949644409</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7446,7 +7448,7 @@
         <v>-3.658086037445</v>
       </c>
       <c r="C392" s="0" t="n">
-        <v>0.87323038931936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7457,7 +7459,7 @@
         <v>0.503819564674712</v>
       </c>
       <c r="C393" s="0" t="n">
-        <v>0.28934167069383</v>
+        <v>0.229765651768828</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7468,7 +7470,7 @@
         <v>0.276972307967025</v>
       </c>
       <c r="C394" s="0" t="n">
-        <v>0.409314160700887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7479,7 +7481,7 @@
         <v>-1.97959761564685</v>
       </c>
       <c r="C395" s="0" t="n">
-        <v>0.221890487940982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7490,7 +7492,7 @@
         <v>-2.34719027193829</v>
       </c>
       <c r="C396" s="0" t="n">
-        <v>0.0439874203875661</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7501,7 +7503,7 @@
         <v>-1.8730809141443</v>
       </c>
       <c r="C397" s="0" t="n">
-        <v>0.723444656236097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,7 +7514,7 @@
         <v>-1.18582273958155</v>
       </c>
       <c r="C398" s="0" t="n">
-        <v>0.173581523820758</v>
+        <v>0.128789322198505</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7523,7 +7525,7 @@
         <v>-1.43168951980675</v>
       </c>
       <c r="C399" s="0" t="n">
-        <v>0.996728772530332</v>
+        <v>0.143124613277842</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7534,7 +7536,7 @@
         <v>3.63684448092698</v>
       </c>
       <c r="C400" s="0" t="n">
-        <v>0.598580550169572</v>
+        <v>0.278330464383785</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7545,7 +7547,7 @@
         <v>-7.01332001077204</v>
       </c>
       <c r="C401" s="0" t="n">
-        <v>0.337044743355364</v>
+        <v>0.291831948868188</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7556,7 +7558,7 @@
         <v>-0.72649746539258</v>
       </c>
       <c r="C402" s="0" t="n">
-        <v>0.492209373041987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,7 +7569,7 @@
         <v>-0.359710876603671</v>
       </c>
       <c r="C403" s="0" t="n">
-        <v>0.8315831029322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7578,7 +7580,7 @@
         <v>-0.945130678375194</v>
       </c>
       <c r="C404" s="0" t="n">
-        <v>0.207179219461977</v>
+        <v>0.0330064269571711</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7589,7 +7591,7 @@
         <v>0.863853363860437</v>
       </c>
       <c r="C405" s="0" t="n">
-        <v>0.383374355966225</v>
+        <v>0.129002417583219</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7600,7 +7602,7 @@
         <v>-0.990052864855757</v>
       </c>
       <c r="C406" s="0" t="n">
-        <v>0.691103507298976</v>
+        <v>0.00519423244015958</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,7 +7613,7 @@
         <v>-0.526095233847194</v>
       </c>
       <c r="C407" s="0" t="n">
-        <v>0.571692099794745</v>
+        <v>0.631465522417227</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7622,7 +7624,7 @@
         <v>-0.457338758049626</v>
       </c>
       <c r="C408" s="0" t="n">
-        <v>0.750698569230735</v>
+        <v>0.617195499751515</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7633,7 +7635,7 @@
         <v>0.864497199997707</v>
       </c>
       <c r="C409" s="0" t="n">
-        <v>0.843068128451705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7644,7 +7646,7 @@
         <v>2.58421485405592</v>
       </c>
       <c r="C410" s="0" t="n">
-        <v>0.215438567101955</v>
+        <v>4.5635548672339E-005</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7657,7 @@
         <v>0.817440873184097</v>
       </c>
       <c r="C411" s="0" t="n">
-        <v>0.606908807065338</v>
+        <v>0.0230044049282695</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7666,7 +7668,7 @@
         <v>1.54465307132775</v>
       </c>
       <c r="C412" s="0" t="n">
-        <v>0.894548438489437</v>
+        <v>0.0907796997716025</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7677,7 +7679,7 @@
         <v>5.31071112655684</v>
       </c>
       <c r="C413" s="0" t="n">
-        <v>0.855356262531132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7688,7 +7690,7 @@
         <v>-4.16094763183168</v>
       </c>
       <c r="C414" s="0" t="n">
-        <v>0.225819770013913</v>
+        <v>0.0599010898089624</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7699,7 +7701,7 @@
         <v>-0.503023247957711</v>
       </c>
       <c r="C415" s="0" t="n">
-        <v>0.336724108550698</v>
+        <v>0.0448555616389463</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7710,7 +7712,7 @@
         <v>1.4218223884994</v>
       </c>
       <c r="C416" s="0" t="n">
-        <v>0.58107275259681</v>
+        <v>0.0399720929665628</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7721,7 +7723,7 @@
         <v>1.54942601066677</v>
       </c>
       <c r="C417" s="0" t="n">
-        <v>0.240242281462997</v>
+        <v>0.285537006999784</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7732,7 +7734,7 @@
         <v>1.10609951029312</v>
       </c>
       <c r="C418" s="0" t="n">
-        <v>0.352089890046045</v>
+        <v>0.200985079620574</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7743,7 +7745,7 @@
         <v>1.96953572849016</v>
       </c>
       <c r="C419" s="0" t="n">
-        <v>0.359540056437254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7754,7 +7756,7 @@
         <v>-2.99938594853778</v>
       </c>
       <c r="C420" s="0" t="n">
-        <v>0.224443751154467</v>
+        <v>0.0948264014947988</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7765,7 +7767,7 @@
         <v>-1.3265371961883</v>
       </c>
       <c r="C421" s="0" t="n">
-        <v>0.683166083414108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7776,7 +7778,7 @@
         <v>3.52929056057541</v>
       </c>
       <c r="C422" s="0" t="n">
-        <v>0.790752394124866</v>
+        <v>0.00374586755269024</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7787,7 +7789,7 @@
         <v>-2.44757505319232</v>
       </c>
       <c r="C423" s="0" t="n">
-        <v>0.60443617682904</v>
+        <v>0.0455102734803327</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7798,7 +7800,7 @@
         <v>-3.60172174512238</v>
       </c>
       <c r="C424" s="0" t="n">
-        <v>0.315530629362911</v>
+        <v>0.37759688512584</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7809,7 +7811,7 @@
         <v>-3.1078776903463</v>
       </c>
       <c r="C425" s="0" t="n">
-        <v>0.788896209094673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7820,7 +7822,7 @@
         <v>0.118781924136976</v>
       </c>
       <c r="C426" s="0" t="n">
-        <v>0.172654367750511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,7 +7833,7 @@
         <v>3.31687777108897</v>
       </c>
       <c r="C427" s="0" t="n">
-        <v>0.076365782180801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7842,7 +7844,7 @@
         <v>2.65208319725609</v>
       </c>
       <c r="C428" s="0" t="n">
-        <v>0.465369978453964</v>
+        <v>0.00110039276114708</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,7 +7855,7 @@
         <v>0.388768107688516</v>
       </c>
       <c r="C429" s="0" t="n">
-        <v>0.428900382947177</v>
+        <v>0.70066957549959</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7864,7 +7866,7 @@
         <v>-2.2232198402477</v>
       </c>
       <c r="C430" s="0" t="n">
-        <v>0.696223271079361</v>
+        <v>0.56651493741023</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7875,7 +7877,7 @@
         <v>-3.73173645757245</v>
       </c>
       <c r="C431" s="0" t="n">
-        <v>0.698837040457875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7886,7 +7888,7 @@
         <v>-1.74421400603252</v>
       </c>
       <c r="C432" s="0" t="n">
-        <v>0.930196184432134</v>
+        <v>0.816476930306952</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7897,7 +7899,7 @@
         <v>-0.157226402242313</v>
       </c>
       <c r="C433" s="0" t="n">
-        <v>0.858683429425582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7908,7 +7910,7 @@
         <v>-1.09686290396662</v>
       </c>
       <c r="C434" s="0" t="n">
-        <v>0.814804061083123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,7 +7921,7 @@
         <v>-0.919974019069082</v>
       </c>
       <c r="C435" s="0" t="n">
-        <v>0.722183930221945</v>
+        <v>0.496134494771719</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7930,7 +7932,7 @@
         <v>-0.718471197630462</v>
       </c>
       <c r="C436" s="0" t="n">
-        <v>0.0800845148041845</v>
+        <v>0.0132048819922864</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7941,7 +7943,7 @@
         <v>-1.7162457630858</v>
       </c>
       <c r="C437" s="0" t="n">
-        <v>0.206283993087709</v>
+        <v>0.135710804135899</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7952,7 +7954,7 @@
         <v>-0.925805856257021</v>
       </c>
       <c r="C438" s="0" t="n">
-        <v>0.250977463787422</v>
+        <v>0.910865890765103</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7963,7 +7965,7 @@
         <v>-3.89360037527443</v>
       </c>
       <c r="C439" s="0" t="n">
-        <v>0.972512288717553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7974,7 +7976,7 @@
         <v>-1.41113508964062</v>
       </c>
       <c r="C440" s="0" t="n">
-        <v>0.242609270382673</v>
+        <v>0.494149483620971</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7985,7 +7987,7 @@
         <v>2.10630134882062</v>
       </c>
       <c r="C441" s="0" t="n">
-        <v>0.534229428973049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7996,7 +7998,7 @@
         <v>0.574596839724775</v>
       </c>
       <c r="C442" s="0" t="n">
-        <v>0.641493362374604</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8007,7 +8009,7 @@
         <v>-1.2379460067924</v>
       </c>
       <c r="C443" s="0" t="n">
-        <v>0.686076704179868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,7 +8020,7 @@
         <v>3.26359217775478</v>
       </c>
       <c r="C444" s="0" t="n">
-        <v>0.291802182560787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8029,7 +8031,7 @@
         <v>1.27822967761444</v>
       </c>
       <c r="C445" s="0" t="n">
-        <v>0.176178359892219</v>
+        <v>0.576227511825765</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8040,7 +8042,7 @@
         <v>-0.443542490483737</v>
       </c>
       <c r="C446" s="0" t="n">
-        <v>0.503173615317792</v>
+        <v>0.340160721613173</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8051,7 +8053,7 @@
         <v>0.0552668923813343</v>
       </c>
       <c r="C447" s="0" t="n">
-        <v>0.172701471950859</v>
+        <v>0.272044107206343</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8062,7 +8064,7 @@
         <v>-0.362438452647015</v>
       </c>
       <c r="C448" s="0" t="n">
-        <v>0.724240995245054</v>
+        <v>0.303241656063217</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8073,7 +8075,7 @@
         <v>3.70441878216627</v>
       </c>
       <c r="C449" s="0" t="n">
-        <v>0.654825127450749</v>
+        <v>0.342934340411377</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8084,7 +8086,7 @@
         <v>-4.72325065592266</v>
       </c>
       <c r="C450" s="0" t="n">
-        <v>0.751088312361389</v>
+        <v>0.054142267469989</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,7 +8097,7 @@
         <v>-0.487900442086475</v>
       </c>
       <c r="C451" s="0" t="n">
-        <v>0.867946859216318</v>
+        <v>0.0951145159138716</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8106,7 +8108,7 @@
         <v>-1.61430175403416</v>
       </c>
       <c r="C452" s="0" t="n">
-        <v>0.0760057123843581</v>
+        <v>0.0902294487808214</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,7 +8119,7 @@
         <v>-1.1420164128756</v>
       </c>
       <c r="C453" s="0" t="n">
-        <v>0.143409346230328</v>
+        <v>0.532372350907961</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8128,7 +8130,7 @@
         <v>0.104264502279566</v>
       </c>
       <c r="C454" s="0" t="n">
-        <v>0.329061529366299</v>
+        <v>0.292841006118918</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,7 +8141,7 @@
         <v>-0.98376020833468</v>
       </c>
       <c r="C455" s="0" t="n">
-        <v>0.264050187543035</v>
+        <v>0.104607878215956</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8150,7 +8152,7 @@
         <v>0.848961688949654</v>
       </c>
       <c r="C456" s="0" t="n">
-        <v>0.311652469914407</v>
+        <v>0.00366805357439202</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8161,7 +8163,7 @@
         <v>1.62506335687665</v>
       </c>
       <c r="C457" s="0" t="n">
-        <v>0.888148803496733</v>
+        <v>0.0718528156520778</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8172,7 +8174,7 @@
         <v>-1.78346776276666</v>
       </c>
       <c r="C458" s="0" t="n">
-        <v>0.626168741844595</v>
+        <v>0.00531948881184805</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,7 +8185,7 @@
         <v>-1.66411191517757</v>
       </c>
       <c r="C459" s="0" t="n">
-        <v>0.0677353399805725</v>
+        <v>0.658230106203064</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8194,7 +8196,7 @@
         <v>0.763117200129641</v>
       </c>
       <c r="C460" s="0" t="n">
-        <v>0.6509229473304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,7 +8207,7 @@
         <v>0.159725042269232</v>
       </c>
       <c r="C461" s="0" t="n">
-        <v>0.508491319837049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8216,7 +8218,7 @@
         <v>-0.268595354242054</v>
       </c>
       <c r="C462" s="0" t="n">
-        <v>0.601899465778843</v>
+        <v>0.787780700678327</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,7 +8229,7 @@
         <v>0.627612341546544</v>
       </c>
       <c r="C463" s="0" t="n">
-        <v>0.514836156973615</v>
+        <v>0.0244815901193523</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8238,7 +8240,7 @@
         <v>0.219813739646295</v>
       </c>
       <c r="C464" s="0" t="n">
-        <v>0.0439401671756059</v>
+        <v>0.829892644625042</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8249,7 +8251,7 @@
         <v>1.94175308714049</v>
       </c>
       <c r="C465" s="0" t="n">
-        <v>0.506761723430827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8260,7 +8262,7 @@
         <v>0.0154842588031673</v>
       </c>
       <c r="C466" s="0" t="n">
-        <v>0.93650474306196</v>
+        <v>0.736587127704514</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8271,7 +8273,7 @@
         <v>-1.09781260063111</v>
       </c>
       <c r="C467" s="0" t="n">
-        <v>0.163772619329393</v>
+        <v>0.175657074306303</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8282,7 +8284,7 @@
         <v>-0.96770048929159</v>
       </c>
       <c r="C468" s="0" t="n">
-        <v>0.0973507722374052</v>
+        <v>0.133529726692127</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8293,7 +8295,7 @@
         <v>-2.01671796411849</v>
       </c>
       <c r="C469" s="0" t="n">
-        <v>0.935729140648618</v>
+        <v>0.666717158522231</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8304,7 +8306,7 @@
         <v>1.15862253839565</v>
       </c>
       <c r="C470" s="0" t="n">
-        <v>0.178328149719164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8315,7 +8317,7 @@
         <v>1.49130505017032</v>
       </c>
       <c r="C471" s="0" t="n">
-        <v>0.131056291982532</v>
+        <v>0.458055300486778</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8326,7 +8328,7 @@
         <v>4.77481647739649</v>
       </c>
       <c r="C472" s="0" t="n">
-        <v>0.719187629409134</v>
+        <v>0.440337435506591</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8337,7 +8339,7 @@
         <v>-2.87957215167663</v>
       </c>
       <c r="C473" s="0" t="n">
-        <v>0.845786940772086</v>
+        <v>0.580262859027816</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8348,7 +8350,7 @@
         <v>0.0836658204591685</v>
       </c>
       <c r="C474" s="0" t="n">
-        <v>0.565111733507365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8359,7 +8361,7 @@
         <v>-0.650731727402742</v>
       </c>
       <c r="C475" s="0" t="n">
-        <v>0.745297347195447</v>
+        <v>0.0316890781287403</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,7 +8372,7 @@
         <v>-0.582638069226258</v>
       </c>
       <c r="C476" s="0" t="n">
-        <v>0.789887294871733</v>
+        <v>0.605634148367863</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8381,7 +8383,7 @@
         <v>-0.416829053994697</v>
       </c>
       <c r="C477" s="0" t="n">
-        <v>0.777248542755842</v>
+        <v>0.447474024621437</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,7 +8394,7 @@
         <v>2.69945313291302</v>
       </c>
       <c r="C478" s="0" t="n">
-        <v>0.28143118089065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,7 +8405,7 @@
         <v>-1.8328062007136</v>
       </c>
       <c r="C479" s="0" t="n">
-        <v>0.287278763018548</v>
+        <v>0.00375791356469007</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,7 +8416,7 @@
         <v>-2.6653753002104</v>
       </c>
       <c r="C480" s="0" t="n">
-        <v>0.551295025274158</v>
+        <v>0.683197757362153</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,7 +8427,7 @@
         <v>-1.12220335654925</v>
       </c>
       <c r="C481" s="0" t="n">
-        <v>0.664391434751451</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8436,7 +8438,7 @@
         <v>0.41417746961242</v>
       </c>
       <c r="C482" s="0" t="n">
-        <v>0.255945171229541</v>
+        <v>0.45174945666881</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,7 +8449,7 @@
         <v>-1.43621918502426</v>
       </c>
       <c r="C483" s="0" t="n">
-        <v>0.432630005292594</v>
+        <v>0.195328481615592</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8458,7 +8460,7 @@
         <v>0.980466018606271</v>
       </c>
       <c r="C484" s="0" t="n">
-        <v>0.610555595019832</v>
+        <v>0.405314003384249</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8469,7 +8471,7 @@
         <v>-0.151291055533118</v>
       </c>
       <c r="C485" s="0" t="n">
-        <v>0.206953695509583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8480,7 +8482,7 @@
         <v>-2.05732804826978</v>
       </c>
       <c r="C486" s="0" t="n">
-        <v>0.39813880296424</v>
+        <v>0.0248792463709548</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8491,7 +8493,7 @@
         <v>-2.58648931203927</v>
       </c>
       <c r="C487" s="0" t="n">
-        <v>0.754327865783125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8502,7 +8504,7 @@
         <v>3.81329340183738</v>
       </c>
       <c r="C488" s="0" t="n">
-        <v>0.837962673511356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8513,7 +8515,7 @@
         <v>2.53407147649888</v>
       </c>
       <c r="C489" s="0" t="n">
-        <v>0.797177862841636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8524,7 +8526,7 @@
         <v>-0.761194334833261</v>
       </c>
       <c r="C490" s="0" t="n">
-        <v>0.630613707238808</v>
+        <v>0.095582721156334</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8535,7 +8537,7 @@
         <v>0.568019040183057</v>
       </c>
       <c r="C491" s="0" t="n">
-        <v>0.855868971906602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8546,7 +8548,7 @@
         <v>-2.0832422755198</v>
       </c>
       <c r="C492" s="0" t="n">
-        <v>0.392270859563723</v>
+        <v>0.107067142784389</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8557,7 +8559,7 @@
         <v>-4.343598549539</v>
       </c>
       <c r="C493" s="0" t="n">
-        <v>0.461752691771835</v>
+        <v>0.0577874285768232</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8568,7 +8570,7 @@
         <v>0.623983080026545</v>
       </c>
       <c r="C494" s="0" t="n">
-        <v>0.0415494958870113</v>
+        <v>0.72402488708759</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8579,7 +8581,7 @@
         <v>-2.14088788009683</v>
       </c>
       <c r="C495" s="0" t="n">
-        <v>0.89614061661996</v>
+        <v>0.483351464155741</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8590,7 +8592,7 @@
         <v>-0.400914482460978</v>
       </c>
       <c r="C496" s="0" t="n">
-        <v>0.0662754399236292</v>
+        <v>0.0955017510802132</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,7 +8603,7 @@
         <v>-2.27299617783918</v>
       </c>
       <c r="C497" s="0" t="n">
-        <v>0.17034993134439</v>
+        <v>0.50747344484469</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8612,7 +8614,7 @@
         <v>1.15032485070411</v>
       </c>
       <c r="C498" s="0" t="n">
-        <v>0.934757815208286</v>
+        <v>0.145545478713998</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,7 +8625,7 @@
         <v>-1.35573748775166</v>
       </c>
       <c r="C499" s="0" t="n">
-        <v>0.373748068697751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,7 +8636,7 @@
         <v>-3.89425261239891</v>
       </c>
       <c r="C500" s="0" t="n">
-        <v>0.929391762241721</v>
+        <v>0.5937706028691</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8645,7 +8647,7 @@
         <v>2.56163579206414</v>
       </c>
       <c r="C501" s="0" t="n">
-        <v>0.427551820175722</v>
+        <v>0.447208366593182</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8656,7 +8658,7 @@
         <v>-0.309379628808431</v>
       </c>
       <c r="C502" s="0" t="n">
-        <v>0.273137644631788</v>
+        <v>0.936573290149753</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8667,7 +8669,7 @@
         <v>-3.55904563081492</v>
       </c>
       <c r="C503" s="0" t="n">
-        <v>0.583085728576407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8678,7 +8680,7 @@
         <v>0.913681728127101</v>
       </c>
       <c r="C504" s="0" t="n">
-        <v>0.0794861949980259</v>
+        <v>0.0782107731687634</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8689,7 +8691,7 @@
         <v>-0.193711039966338</v>
       </c>
       <c r="C505" s="0" t="n">
-        <v>0.566318816738203</v>
+        <v>0.302868658655263</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8700,7 +8702,7 @@
         <v>1.84716144619084</v>
       </c>
       <c r="C506" s="0" t="n">
-        <v>0.0603042924776673</v>
+        <v>0.0767464975480883</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8711,7 +8713,7 @@
         <v>-0.556388041799558</v>
       </c>
       <c r="C507" s="0" t="n">
-        <v>0.143621925031766</v>
+        <v>0.838462270650735</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8722,7 +8724,7 @@
         <v>0.136412143573726</v>
       </c>
       <c r="C508" s="0" t="n">
-        <v>0.476268663071096</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8733,7 +8735,7 @@
         <v>3.36457267951135</v>
       </c>
       <c r="C509" s="0" t="n">
-        <v>0.415002937428653</v>
+        <v>0.732970295870486</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8744,7 +8746,7 @@
         <v>-1.06935273936882</v>
       </c>
       <c r="C510" s="0" t="n">
-        <v>0.613500517094508</v>
+        <v>0.45121708001898</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8755,7 +8757,7 @@
         <v>0.709724998842773</v>
       </c>
       <c r="C511" s="0" t="n">
-        <v>0.1284252142068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8766,7 +8768,7 @@
         <v>-0.934205896148595</v>
       </c>
       <c r="C512" s="0" t="n">
-        <v>0.60595163772814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8777,7 +8779,7 @@
         <v>0.427542447832889</v>
       </c>
       <c r="C513" s="0" t="n">
-        <v>0.919266937999055</v>
+        <v>0.00757264139301809</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8788,7 +8790,7 @@
         <v>-1.18422681946175</v>
       </c>
       <c r="C514" s="0" t="n">
-        <v>0.170724043622613</v>
+        <v>0.168961297688525</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,7 +8801,7 @@
         <v>-1.0820633821469</v>
       </c>
       <c r="C515" s="0" t="n">
-        <v>0.8774172172416</v>
+        <v>0.946413238362336</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8810,7 +8812,7 @@
         <v>-2.30829706489736</v>
       </c>
       <c r="C516" s="0" t="n">
-        <v>0.199259912595153</v>
+        <v>0.639550671633821</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8821,7 +8823,7 @@
         <v>-3.12676532448993</v>
       </c>
       <c r="C517" s="0" t="n">
-        <v>0.871689382242039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8832,7 +8834,7 @@
         <v>0.683956835819044</v>
       </c>
       <c r="C518" s="0" t="n">
-        <v>0.57884196517989</v>
+        <v>0.00821536962556948</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8843,7 +8845,7 @@
         <v>-0.75860364935301</v>
       </c>
       <c r="C519" s="0" t="n">
-        <v>0.13322194898501</v>
+        <v>0.639032039059592</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8854,7 +8856,7 @@
         <v>-0.621996868805668</v>
       </c>
       <c r="C520" s="0" t="n">
-        <v>0.488489393610507</v>
+        <v>0.765860399105268</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8865,7 +8867,7 @@
         <v>0.474194397946913</v>
       </c>
       <c r="C521" s="0" t="n">
-        <v>0.319540158845484</v>
+        <v>0.858901488791588</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8876,7 +8878,7 @@
         <v>1.79607966392171</v>
       </c>
       <c r="C522" s="0" t="n">
-        <v>0.782317295670509</v>
+        <v>0.544454386844257</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8887,7 +8889,7 @@
         <v>2.14071437166473</v>
       </c>
       <c r="C523" s="0" t="n">
-        <v>0.0692037947010249</v>
+        <v>0.895415485370794</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,7 +8900,7 @@
         <v>0.250870887741124</v>
       </c>
       <c r="C524" s="0" t="n">
-        <v>0.547743893926963</v>
+        <v>0.150820958893684</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8909,7 +8911,7 @@
         <v>-1.95071126289966</v>
       </c>
       <c r="C525" s="0" t="n">
-        <v>0.084045073017478</v>
+        <v>0.307863240115538</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,7 +8922,7 @@
         <v>0.834192158863799</v>
       </c>
       <c r="C526" s="0" t="n">
-        <v>0.686152392765507</v>
+        <v>0.000335835472237895</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8931,7 +8933,7 @@
         <v>-0.916883654918902</v>
       </c>
       <c r="C527" s="0" t="n">
-        <v>0.068929050816223</v>
+        <v>0.110269810164734</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8942,7 +8944,7 @@
         <v>-0.018941576877547</v>
       </c>
       <c r="C528" s="0" t="n">
-        <v>0.481406655162573</v>
+        <v>0.10560329886079</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,7 +8955,7 @@
         <v>0.165094077924114</v>
       </c>
       <c r="C529" s="0" t="n">
-        <v>0.142436190275475</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8964,7 +8966,7 @@
         <v>-0.16777833831938</v>
       </c>
       <c r="C530" s="0" t="n">
-        <v>0.613395218737423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8975,7 +8977,7 @@
         <v>-0.607429238366263</v>
       </c>
       <c r="C531" s="0" t="n">
-        <v>0.886635744245723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8986,7 +8988,7 @@
         <v>0.056546117464702</v>
       </c>
       <c r="C532" s="0" t="n">
-        <v>0.995100693078712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8997,7 +8999,7 @@
         <v>0.665816977275158</v>
       </c>
       <c r="C533" s="0" t="n">
-        <v>0.535964299924672</v>
+        <v>0.341689701057377</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9008,7 +9010,7 @@
         <v>-1.03832109792817</v>
       </c>
       <c r="C534" s="0" t="n">
-        <v>0.853879142785445</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9019,7 +9021,7 @@
         <v>-0.692312989675327</v>
       </c>
       <c r="C535" s="0" t="n">
-        <v>0.257183515001088</v>
+        <v>0.341352976698089</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9030,7 +9032,7 @@
         <v>-0.6821548693533</v>
       </c>
       <c r="C536" s="0" t="n">
-        <v>0.694942112313584</v>
+        <v>0.533055299741844</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9041,7 +9043,7 @@
         <v>0.279176358950584</v>
       </c>
       <c r="C537" s="0" t="n">
-        <v>0.0960095496848226</v>
+        <v>0.250282292919691</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9052,7 +9054,7 @@
         <v>-0.223236215725551</v>
       </c>
       <c r="C538" s="0" t="n">
-        <v>0.610739658819512</v>
+        <v>0.0745248540903432</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9063,7 +9065,7 @@
         <v>-3.03149370018506</v>
       </c>
       <c r="C539" s="0" t="n">
-        <v>0.0885442532598972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9074,7 +9076,7 @@
         <v>2.22042641388339</v>
       </c>
       <c r="C540" s="0" t="n">
-        <v>0.164796513738111</v>
+        <v>0.21704622292287</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9085,7 +9087,7 @@
         <v>-1.70565431299656</v>
       </c>
       <c r="C541" s="0" t="n">
-        <v>0.903419431997463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9096,7 +9098,7 @@
         <v>-1.72706021622686</v>
       </c>
       <c r="C542" s="0" t="n">
-        <v>0.198790369089693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9107,7 +9109,7 @@
         <v>-1.98796775148725</v>
       </c>
       <c r="C543" s="0" t="n">
-        <v>0.672285283915699</v>
+        <v>0.0215708722943593</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9118,7 +9120,7 @@
         <v>-3.67764953692141</v>
       </c>
       <c r="C544" s="0" t="n">
-        <v>0.635931557742879</v>
+        <v>0.0202709204944991</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,7 +9131,7 @@
         <v>1.89378739637303</v>
       </c>
       <c r="C545" s="0" t="n">
-        <v>0.592444963520393</v>
+        <v>0.0923700566459265</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9140,7 +9142,7 @@
         <v>2.3292209778087</v>
       </c>
       <c r="C546" s="0" t="n">
-        <v>0.127998600481078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9151,7 +9153,7 @@
         <v>1.75310268154369</v>
       </c>
       <c r="C547" s="0" t="n">
-        <v>0.576227496145293</v>
+        <v>0.2180573480673</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9162,7 +9164,7 @@
         <v>1.72345794452882</v>
       </c>
       <c r="C548" s="0" t="n">
-        <v>0.807148029794917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9173,7 +9175,7 @@
         <v>-1.89122634323475</v>
       </c>
       <c r="C549" s="0" t="n">
-        <v>0.82540938956663</v>
+        <v>0.713117722200646</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9184,7 +9186,7 @@
         <v>2.1446220801285</v>
       </c>
       <c r="C550" s="0" t="n">
-        <v>0.449283758876845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9195,7 +9197,7 @@
         <v>0.0188866326233318</v>
       </c>
       <c r="C551" s="0" t="n">
-        <v>0.4112601892557</v>
+        <v>0.253926159595545</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9206,7 +9208,7 @@
         <v>-0.352663940321884</v>
       </c>
       <c r="C552" s="0" t="n">
-        <v>0.792764540528879</v>
+        <v>0.0737311140092424</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,7 +9219,7 @@
         <v>0.8770022079143</v>
       </c>
       <c r="C553" s="0" t="n">
-        <v>0.695594650926068</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9228,7 +9230,7 @@
         <v>2.72508620596262</v>
       </c>
       <c r="C554" s="0" t="n">
-        <v>0.689088137820363</v>
+        <v>0.271766687172499</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9239,7 +9241,7 @@
         <v>2.54171659087492</v>
       </c>
       <c r="C555" s="0" t="n">
-        <v>0.214532299898565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,7 +9252,7 @@
         <v>-1.23988178635669</v>
       </c>
       <c r="C556" s="0" t="n">
-        <v>0.56071733799763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9261,7 +9263,7 @@
         <v>1.09257155013525</v>
       </c>
       <c r="C557" s="0" t="n">
-        <v>0.492177350213751</v>
+        <v>0.663961651967945</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9272,7 +9274,7 @@
         <v>2.31932753373913</v>
       </c>
       <c r="C558" s="0" t="n">
-        <v>0.00524132885038853</v>
+        <v>0.122834280385031</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9283,7 +9285,7 @@
         <v>-1.08643179582074</v>
       </c>
       <c r="C559" s="0" t="n">
-        <v>0.123069869121537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9294,7 +9296,7 @@
         <v>4.79919716315021</v>
       </c>
       <c r="C560" s="0" t="n">
-        <v>0.520474276738241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9305,7 +9307,7 @@
         <v>1.10350405938844</v>
       </c>
       <c r="C561" s="0" t="n">
-        <v>0.217519909143448</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9316,7 +9318,7 @@
         <v>-2.16297344976611</v>
       </c>
       <c r="C562" s="0" t="n">
-        <v>0.595494486158714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,7 +9329,7 @@
         <v>1.08652748823277</v>
       </c>
       <c r="C563" s="0" t="n">
-        <v>0.894766886718571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9338,7 +9340,7 @@
         <v>-1.25316921408506</v>
       </c>
       <c r="C564" s="0" t="n">
-        <v>0.586918446933851</v>
+        <v>0.0153557112985915</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9349,7 +9351,7 @@
         <v>-0.191593034564752</v>
       </c>
       <c r="C565" s="0" t="n">
-        <v>0.41778972116299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,7 +9362,7 @@
         <v>0.549148476769131</v>
       </c>
       <c r="C566" s="0" t="n">
-        <v>0.427822028286755</v>
+        <v>0.727343479373279</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9371,7 +9373,7 @@
         <v>-2.22913686101672</v>
       </c>
       <c r="C567" s="0" t="n">
-        <v>0.692886965814978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9382,7 +9384,7 @@
         <v>-2.3821205813021</v>
       </c>
       <c r="C568" s="0" t="n">
-        <v>0.300171724986285</v>
+        <v>0.907025113772548</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +9395,7 @@
         <v>3.61844918834076</v>
       </c>
       <c r="C569" s="0" t="n">
-        <v>0.687425270210952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9404,7 +9406,7 @@
         <v>-1.68477525466909</v>
       </c>
       <c r="C570" s="0" t="n">
-        <v>0.542363380081952</v>
+        <v>0.0604988476284329</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,7 +9417,7 @@
         <v>-0.322360792296166</v>
       </c>
       <c r="C571" s="0" t="n">
-        <v>0.331811375217512</v>
+        <v>0.500952366059124</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9426,7 +9428,7 @@
         <v>0.00014788619307814</v>
       </c>
       <c r="C572" s="0" t="n">
-        <v>0.886369647923857</v>
+        <v>0.598484950780935</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9437,7 +9439,7 @@
         <v>0.915533423788318</v>
       </c>
       <c r="C573" s="0" t="n">
-        <v>0.191891317721456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9448,7 +9450,7 @@
         <v>-4.31741041694422</v>
       </c>
       <c r="C574" s="0" t="n">
-        <v>0.791816856479272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9459,7 +9461,7 @@
         <v>1.36986096118983</v>
       </c>
       <c r="C575" s="0" t="n">
-        <v>0.614743431797251</v>
+        <v>0.00327573158922286</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9470,7 +9472,7 @@
         <v>3.31187425939571</v>
       </c>
       <c r="C576" s="0" t="n">
-        <v>0.645663095870987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,7 +9483,7 @@
         <v>-0.362243433009613</v>
       </c>
       <c r="C577" s="0" t="n">
-        <v>0.511239057173952</v>
+        <v>0.0162548846120805</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9492,7 +9494,7 @@
         <v>3.28013532343717</v>
       </c>
       <c r="C578" s="0" t="n">
-        <v>0.240439819172025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9503,7 +9505,7 @@
         <v>1.2798456033407</v>
       </c>
       <c r="C579" s="0" t="n">
-        <v>0.341235692379996</v>
+        <v>0.523797361258685</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9514,7 +9516,7 @@
         <v>-1.66130371640079</v>
       </c>
       <c r="C580" s="0" t="n">
-        <v>0.529709925642237</v>
+        <v>0.00955369813925492</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9525,7 +9527,7 @@
         <v>0.0216241550953655</v>
       </c>
       <c r="C581" s="0" t="n">
-        <v>0.69966363790445</v>
+        <v>0.371102000026475</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9536,7 +9538,7 @@
         <v>-1.27877369657691</v>
       </c>
       <c r="C582" s="0" t="n">
-        <v>0.513035605661571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9547,7 +9549,7 @@
         <v>-0.674398985362631</v>
       </c>
       <c r="C583" s="0" t="n">
-        <v>0.98580622812733</v>
+        <v>0.379975925347541</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9558,7 +9560,7 @@
         <v>2.52184357837885</v>
       </c>
       <c r="C584" s="0" t="n">
-        <v>0.535216797143221</v>
+        <v>0.0541531121566495</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9569,7 +9571,7 @@
         <v>0.287547150120635</v>
       </c>
       <c r="C585" s="0" t="n">
-        <v>0.651954899309203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9580,7 +9582,7 @@
         <v>-1.23644874146096</v>
       </c>
       <c r="C586" s="0" t="n">
-        <v>0.00356498267501593</v>
+        <v>0.0704745383914883</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9591,7 +9593,7 @@
         <v>-4.87072927420651</v>
       </c>
       <c r="C587" s="0" t="n">
-        <v>0.219254981260747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9602,7 +9604,7 @@
         <v>-1.71699018572856</v>
       </c>
       <c r="C588" s="0" t="n">
-        <v>0.275567785836756</v>
+        <v>0.13456334750442</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9613,7 +9615,7 @@
         <v>0.453106468075991</v>
       </c>
       <c r="C589" s="0" t="n">
-        <v>0.308904287172481</v>
+        <v>0.599496917334486</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9624,7 +9626,7 @@
         <v>0.669800223575031</v>
       </c>
       <c r="C590" s="0" t="n">
-        <v>0.698397230356932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9635,7 +9637,7 @@
         <v>0.743712733888829</v>
       </c>
       <c r="C591" s="0" t="n">
-        <v>0.0453562932088971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9646,7 +9648,7 @@
         <v>-0.304394693898373</v>
       </c>
       <c r="C592" s="0" t="n">
-        <v>0.702609124826267</v>
+        <v>0.264718970504811</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9657,7 +9659,7 @@
         <v>0.189494199315179</v>
       </c>
       <c r="C593" s="0" t="n">
-        <v>0.683262223843485</v>
+        <v>0.104694216527822</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9668,7 +9670,7 @@
         <v>0.18065569229814</v>
       </c>
       <c r="C594" s="0" t="n">
-        <v>0.0758818676695228</v>
+        <v>0.67457494855258</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9679,7 +9681,7 @@
         <v>1.2845326185032</v>
       </c>
       <c r="C595" s="0" t="n">
-        <v>0.302852148422971</v>
+        <v>0.0669542661156089</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9690,7 +9692,7 @@
         <v>0.88779550339566</v>
       </c>
       <c r="C596" s="0" t="n">
-        <v>0.382260791724548</v>
+        <v>0.598271097077809</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9701,7 +9703,7 @@
         <v>2.35337629994772</v>
       </c>
       <c r="C597" s="0" t="n">
-        <v>0.298597186570987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9712,7 +9714,7 @@
         <v>0.81952934918988</v>
       </c>
       <c r="C598" s="0" t="n">
-        <v>0.913820905610919</v>
+        <v>0.653105731003826</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9723,7 +9725,7 @@
         <v>-2.15418830001196</v>
       </c>
       <c r="C599" s="0" t="n">
-        <v>0.416809539776295</v>
+        <v>0.196036024363997</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9734,7 +9736,7 @@
         <v>0.238964092603568</v>
       </c>
       <c r="C600" s="0" t="n">
-        <v>0.441882695537061</v>
+        <v>0.0285806794321691</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9745,7 +9747,7 @@
         <v>1.89543387449412</v>
       </c>
       <c r="C601" s="0" t="n">
-        <v>0.303857725812122</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9756,7 +9758,7 @@
         <v>-0.489807257017189</v>
       </c>
       <c r="C602" s="0" t="n">
-        <v>0.20303555438295</v>
+        <v>0.139081696562998</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9767,7 +9769,7 @@
         <v>-0.52198970655523</v>
       </c>
       <c r="C603" s="0" t="n">
-        <v>0.41270270338282</v>
+        <v>0.177794917819004</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9778,7 +9780,7 @@
         <v>1.16542606972375</v>
       </c>
       <c r="C604" s="0" t="n">
-        <v>0.275229774182662</v>
+        <v>0.0555616838973402</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9789,7 +9791,7 @@
         <v>-2.77264850394287</v>
       </c>
       <c r="C605" s="0" t="n">
-        <v>0.0601467292290181</v>
+        <v>0.0237164038408315</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9800,7 +9802,7 @@
         <v>3.71203577976458</v>
       </c>
       <c r="C606" s="0" t="n">
-        <v>0.227668008068576</v>
+        <v>0.213435732547663</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9811,7 +9813,7 @@
         <v>0.987649453732452</v>
       </c>
       <c r="C607" s="0" t="n">
-        <v>0.555499830748886</v>
+        <v>0.315147935950065</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9822,7 +9824,7 @@
         <v>0.877235420573531</v>
       </c>
       <c r="C608" s="0" t="n">
-        <v>0.949929370544851</v>
+        <v>0.311151734416538</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9833,7 +9835,7 @@
         <v>2.1677691648928</v>
       </c>
       <c r="C609" s="0" t="n">
-        <v>0.35850264551118</v>
+        <v>0.00662619121049155</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9844,7 +9846,7 @@
         <v>-0.0224312761478286</v>
       </c>
       <c r="C610" s="0" t="n">
-        <v>0.636711543658748</v>
+        <v>0.440117018379293</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9855,7 +9857,7 @@
         <v>0.760974456789858</v>
       </c>
       <c r="C611" s="0" t="n">
-        <v>0.10766071639955</v>
+        <v>0.155341455564499</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9866,7 +9868,7 @@
         <v>2.67593628356254</v>
       </c>
       <c r="C612" s="0" t="n">
-        <v>0.542048179078847</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,7 +9879,7 @@
         <v>-3.93081184033681</v>
       </c>
       <c r="C613" s="0" t="n">
-        <v>0.293591401772574</v>
+        <v>0.575911397751579</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9888,7 +9890,7 @@
         <v>1.11593649734681</v>
       </c>
       <c r="C614" s="0" t="n">
-        <v>0.785647164098918</v>
+        <v>0.0284936206045696</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9899,7 +9901,7 @@
         <v>-4.45043026799883</v>
       </c>
       <c r="C615" s="0" t="n">
-        <v>0.0138406825717539</v>
+        <v>0.369689449872502</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,7 +9912,7 @@
         <v>-4.23976938762588</v>
       </c>
       <c r="C616" s="0" t="n">
-        <v>0.695658764801919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9921,7 +9923,7 @@
         <v>-1.88190021415317</v>
       </c>
       <c r="C617" s="0" t="n">
-        <v>0.313091284828261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,7 +9934,7 @@
         <v>-0.5707456819512</v>
       </c>
       <c r="C618" s="0" t="n">
-        <v>0.0945561681874097</v>
+        <v>0.0672106396846135</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,7 +9945,7 @@
         <v>-0.602588831868471</v>
       </c>
       <c r="C619" s="0" t="n">
-        <v>0.897324283141643</v>
+        <v>0.809309222895375</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9954,7 +9956,7 @@
         <v>2.36200351641263</v>
       </c>
       <c r="C620" s="0" t="n">
-        <v>0.288625351618975</v>
+        <v>0.307860656591366</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9965,7 +9967,7 @@
         <v>-1.80171384609209</v>
       </c>
       <c r="C621" s="0" t="n">
-        <v>0.367618002463132</v>
+        <v>0.31614581656882</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,7 +9978,7 @@
         <v>-0.898015937307298</v>
       </c>
       <c r="C622" s="0" t="n">
-        <v>0.718203925527632</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9987,7 +9989,7 @@
         <v>-0.640133123374886</v>
       </c>
       <c r="C623" s="0" t="n">
-        <v>0.45917809009552</v>
+        <v>0.413671343065839</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9998,7 +10000,7 @@
         <v>-3.09478078234426</v>
       </c>
       <c r="C624" s="0" t="n">
-        <v>0.273857204476371</v>
+        <v>0.00102293331323288</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10009,7 +10011,7 @@
         <v>1.18960187432691</v>
       </c>
       <c r="C625" s="0" t="n">
-        <v>0.461855297675356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10020,7 +10022,7 @@
         <v>-0.445523721062771</v>
       </c>
       <c r="C626" s="0" t="n">
-        <v>0.0330284982919693</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10031,7 +10033,7 @@
         <v>0.872373340473533</v>
       </c>
       <c r="C627" s="0" t="n">
-        <v>0.251839996548369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10042,7 +10044,7 @@
         <v>1.75900093605606</v>
       </c>
       <c r="C628" s="0" t="n">
-        <v>0.384989123325795</v>
+        <v>0.54593492638833</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10053,7 +10055,7 @@
         <v>1.06576620733342</v>
       </c>
       <c r="C629" s="0" t="n">
-        <v>0.761672062100843</v>
+        <v>0.0921193316616779</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10064,7 +10066,7 @@
         <v>-1.60402330321733</v>
       </c>
       <c r="C630" s="0" t="n">
-        <v>0.660319640301168</v>
+        <v>0.109550030425688</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10075,7 +10077,7 @@
         <v>3.12988497628782</v>
       </c>
       <c r="C631" s="0" t="n">
-        <v>0.491847099503502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10086,7 +10088,7 @@
         <v>-1.41771905927049</v>
       </c>
       <c r="C632" s="0" t="n">
-        <v>0.0791320949792862</v>
+        <v>0.0729622394328984</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10097,7 +10099,7 @@
         <v>-0.979018218554725</v>
       </c>
       <c r="C633" s="0" t="n">
-        <v>0.893915877910331</v>
+        <v>0.136723317432782</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10108,7 +10110,7 @@
         <v>-1.70170476064136</v>
       </c>
       <c r="C634" s="0" t="n">
-        <v>0.534085369901732</v>
+        <v>0.0038874147523109</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10119,7 +10121,7 @@
         <v>2.60863457178282</v>
       </c>
       <c r="C635" s="0" t="n">
-        <v>0.18550202739425</v>
+        <v>0.634970553618511</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10130,7 +10132,7 @@
         <v>0.88252725124406</v>
       </c>
       <c r="C636" s="0" t="n">
-        <v>0.736982753267512</v>
+        <v>0.304924319415897</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10141,7 +10143,7 @@
         <v>2.79922049513299</v>
       </c>
       <c r="C637" s="0" t="n">
-        <v>0.375033705960959</v>
+        <v>0.395869074720806</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,7 +10154,7 @@
         <v>1.60197406383082</v>
       </c>
       <c r="C638" s="0" t="n">
-        <v>0.692905709613115</v>
+        <v>0.066640476746194</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10163,7 +10165,7 @@
         <v>-2.36579667655487</v>
       </c>
       <c r="C639" s="0" t="n">
-        <v>0.648125444771722</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10174,7 +10176,7 @@
         <v>-0.878664354042312</v>
       </c>
       <c r="C640" s="0" t="n">
-        <v>0.292507114354521</v>
+        <v>0.222274797010412</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10185,7 +10187,7 @@
         <v>-3.62987891783183</v>
       </c>
       <c r="C641" s="0" t="n">
-        <v>0.100700471317396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10196,7 +10198,7 @@
         <v>-0.0335518011748709</v>
       </c>
       <c r="C642" s="0" t="n">
-        <v>0.295603435952216</v>
+        <v>0.281715139065753</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10207,7 +10209,7 @@
         <v>0.85164848281225</v>
       </c>
       <c r="C643" s="0" t="n">
-        <v>0.0957600348629057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10218,7 +10220,7 @@
         <v>-1.18814177113451</v>
       </c>
       <c r="C644" s="0" t="n">
-        <v>0.74115974502638</v>
+        <v>0.441552915088762</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10229,7 +10231,7 @@
         <v>1.96031739172954</v>
       </c>
       <c r="C645" s="0" t="n">
-        <v>0.3378256179858</v>
+        <v>0.237191540066797</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10240,7 +10242,7 @@
         <v>1.25858176538205</v>
       </c>
       <c r="C646" s="0" t="n">
-        <v>0.573226071661338</v>
+        <v>0.178491070546529</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10251,7 +10253,7 @@
         <v>-1.91116619725756</v>
       </c>
       <c r="C647" s="0" t="n">
-        <v>0.52828880213201</v>
+        <v>0.000141571366961215</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10262,7 +10264,7 @@
         <v>1.22370920031335</v>
       </c>
       <c r="C648" s="0" t="n">
-        <v>0.336408842587844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10273,7 +10275,7 @@
         <v>-0.934156653300649</v>
       </c>
       <c r="C649" s="0" t="n">
-        <v>0.616541218711063</v>
+        <v>0.843961614492446</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10284,7 +10286,7 @@
         <v>0.194477213460901</v>
       </c>
       <c r="C650" s="0" t="n">
-        <v>0.605373507365584</v>
+        <v>0.00543226894864197</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10295,7 +10297,7 @@
         <v>-1.89773999056933</v>
       </c>
       <c r="C651" s="0" t="n">
-        <v>0.258964972337708</v>
+        <v>0.170143471380851</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10306,7 +10308,7 @@
         <v>1.64936200888132</v>
       </c>
       <c r="C652" s="0" t="n">
-        <v>0.898086752742529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10317,7 +10319,7 @@
         <v>-2.84154865459935</v>
       </c>
       <c r="C653" s="0" t="n">
-        <v>0.291140392422676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10328,7 +10330,7 @@
         <v>0.0817494981617178</v>
       </c>
       <c r="C654" s="0" t="n">
-        <v>0.1315371862147</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,7 +10341,7 @@
         <v>0.818457091455533</v>
       </c>
       <c r="C655" s="0" t="n">
-        <v>0.863689026795328</v>
+        <v>0.287501123837045</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10350,7 +10352,7 @@
         <v>0.64153478828868</v>
       </c>
       <c r="C656" s="0" t="n">
-        <v>0.848017214331776</v>
+        <v>0.315958845966404</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,7 +10363,7 @@
         <v>4.5302364417172</v>
       </c>
       <c r="C657" s="0" t="n">
-        <v>0.699382108869031</v>
+        <v>0.00106310058138024</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,7 +10374,7 @@
         <v>1.49988345600358</v>
       </c>
       <c r="C658" s="0" t="n">
-        <v>0.068899528356269</v>
+        <v>0.0586237322130099</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10383,7 +10385,7 @@
         <v>-0.1204068924238</v>
       </c>
       <c r="C659" s="0" t="n">
-        <v>0.10974434344098</v>
+        <v>0.945415957207122</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10394,7 +10396,7 @@
         <v>0.0183456246563309</v>
       </c>
       <c r="C660" s="0" t="n">
-        <v>0.898263681447133</v>
+        <v>0.0225111876386812</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10405,7 +10407,7 @@
         <v>1.15347605266974</v>
       </c>
       <c r="C661" s="0" t="n">
-        <v>0.792802481213584</v>
+        <v>0.427146250524785</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10416,7 +10418,7 @@
         <v>-0.596599344219711</v>
       </c>
       <c r="C662" s="0" t="n">
-        <v>0.482554651098326</v>
+        <v>0.349975600960311</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10427,7 +10429,7 @@
         <v>-1.69911878051378</v>
       </c>
       <c r="C663" s="0" t="n">
-        <v>0.28312666201964</v>
+        <v>0.1353700164466</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10438,7 +10440,7 @@
         <v>0.636488308700136</v>
       </c>
       <c r="C664" s="0" t="n">
-        <v>0.78706627804786</v>
+        <v>0.337112407464035</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10449,7 +10451,7 @@
         <v>1.77183999425414</v>
       </c>
       <c r="C665" s="0" t="n">
-        <v>0.00793812912888825</v>
+        <v>0.714875246323344</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10460,7 +10462,7 @@
         <v>-1.0633655116733</v>
       </c>
       <c r="C666" s="0" t="n">
-        <v>0.773595151258632</v>
+        <v>0.69989312849849</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10471,7 +10473,7 @@
         <v>1.93251509604605</v>
       </c>
       <c r="C667" s="0" t="n">
-        <v>0.73316821991466</v>
+        <v>0.158114498693078</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10482,7 +10484,7 @@
         <v>-1.35525794077928</v>
       </c>
       <c r="C668" s="0" t="n">
-        <v>0.388032998656854</v>
+        <v>0.617944415750824</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10493,7 +10495,7 @@
         <v>4.74987861964473</v>
       </c>
       <c r="C669" s="0" t="n">
-        <v>0.668299141107127</v>
+        <v>0.320014234411547</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10504,7 +10506,7 @@
         <v>2.97134965723454</v>
       </c>
       <c r="C670" s="0" t="n">
-        <v>0.307885720394552</v>
+        <v>0.877217049873653</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10515,7 +10517,7 @@
         <v>-1.00393797886582</v>
       </c>
       <c r="C671" s="0" t="n">
-        <v>0.795582686318085</v>
+        <v>0.996718464768476</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10526,7 +10528,7 @@
         <v>1.23929398533028</v>
       </c>
       <c r="C672" s="0" t="n">
-        <v>0.445113541558385</v>
+        <v>0.109743540674417</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10537,7 +10539,7 @@
         <v>0.285476137199386</v>
       </c>
       <c r="C673" s="0" t="n">
-        <v>0.220482520293444</v>
+        <v>0.644401285187933</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10548,7 +10550,7 @@
         <v>-1.73264344078464</v>
       </c>
       <c r="C674" s="0" t="n">
-        <v>0.438711765920743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10559,7 +10561,7 @@
         <v>-2.79642692933019</v>
       </c>
       <c r="C675" s="0" t="n">
-        <v>0.429156969534233</v>
+        <v>0.66050041140867</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,7 +10572,7 @@
         <v>-3.75408683841885</v>
       </c>
       <c r="C676" s="0" t="n">
-        <v>0.754890503361821</v>
+        <v>0.109576238260997</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10581,7 +10583,7 @@
         <v>2.09554700532773</v>
       </c>
       <c r="C677" s="0" t="n">
-        <v>0.114759198855609</v>
+        <v>0.483437525210251</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,7 +10594,7 @@
         <v>-1.91260200274431</v>
       </c>
       <c r="C678" s="0" t="n">
-        <v>0.86525896191597</v>
+        <v>0.207617160726119</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10603,7 +10605,7 @@
         <v>3.07379607785629</v>
       </c>
       <c r="C679" s="0" t="n">
-        <v>0.726369845913723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10614,7 +10616,7 @@
         <v>1.29533371689833</v>
       </c>
       <c r="C680" s="0" t="n">
-        <v>0.180297490442172</v>
+        <v>0.864794119354153</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10625,7 +10627,7 @@
         <v>1.1983974148575</v>
       </c>
       <c r="C681" s="0" t="n">
-        <v>0.226728580426425</v>
+        <v>0.161566845380591</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10636,7 +10638,7 @@
         <v>-1.08807622001319</v>
       </c>
       <c r="C682" s="0" t="n">
-        <v>0.534909516107291</v>
+        <v>0.30380141560876</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10647,7 +10649,7 @@
         <v>-2.64556300840549</v>
       </c>
       <c r="C683" s="0" t="n">
-        <v>0.251690023345873</v>
+        <v>0.0614422428026036</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10658,7 +10660,7 @@
         <v>-1.04770059221118</v>
       </c>
       <c r="C684" s="0" t="n">
-        <v>0.108969559893012</v>
+        <v>0.581315713466127</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10669,7 +10671,7 @@
         <v>-0.13538494333091</v>
       </c>
       <c r="C685" s="0" t="n">
-        <v>0.629334316588938</v>
+        <v>0.0991064392555185</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10680,7 +10682,7 @@
         <v>-3.6995238599722</v>
       </c>
       <c r="C686" s="0" t="n">
-        <v>0.393832737579942</v>
+        <v>0.128345330685647</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10691,7 +10693,7 @@
         <v>0.268324957412823</v>
       </c>
       <c r="C687" s="0" t="n">
-        <v>0.864831399172545</v>
+        <v>0.155164133410419</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10702,7 +10704,7 @@
         <v>1.20206966370494</v>
       </c>
       <c r="C688" s="0" t="n">
-        <v>0.244461236754432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10713,7 +10715,7 @@
         <v>-1.75052197696606</v>
       </c>
       <c r="C689" s="0" t="n">
-        <v>0.507714299950749</v>
+        <v>0.227007194923038</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10724,7 +10726,7 @@
         <v>-3.79522613290059</v>
       </c>
       <c r="C690" s="0" t="n">
-        <v>0.410624716663733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10735,7 +10737,7 @@
         <v>-1.34145515852107</v>
       </c>
       <c r="C691" s="0" t="n">
-        <v>0.0893037307541817</v>
+        <v>0.934477133337754</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10746,7 +10748,7 @@
         <v>3.78613327948772</v>
       </c>
       <c r="C692" s="0" t="n">
-        <v>0.928055117372423</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10757,7 +10759,7 @@
         <v>0.784416115830182</v>
       </c>
       <c r="C693" s="0" t="n">
-        <v>0.0553887393325567</v>
+        <v>0.0329755638672592</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10768,7 +10770,7 @@
         <v>0.964679552110338</v>
       </c>
       <c r="C694" s="0" t="n">
-        <v>0.983690609689802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,7 +10781,7 @@
         <v>0.977274774242136</v>
       </c>
       <c r="C695" s="0" t="n">
-        <v>0.728270613821223</v>
+        <v>0.838391472281922</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10790,7 +10792,7 @@
         <v>0.165678164323021</v>
       </c>
       <c r="C696" s="0" t="n">
-        <v>0.201774809509516</v>
+        <v>0.575151866273849</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10801,7 +10803,7 @@
         <v>-0.70476545708351</v>
       </c>
       <c r="C697" s="0" t="n">
-        <v>0.303334006108344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10812,7 +10814,7 @@
         <v>1.03817438926791</v>
       </c>
       <c r="C698" s="0" t="n">
-        <v>0.800764144398272</v>
+        <v>0.0271739371401677</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10823,7 +10825,7 @@
         <v>-5.91462810592485</v>
       </c>
       <c r="C699" s="0" t="n">
-        <v>0.324602567125112</v>
+        <v>0.000246083201097984</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,7 +10836,7 @@
         <v>-0.867987082233019</v>
       </c>
       <c r="C700" s="0" t="n">
-        <v>0.962504912167788</v>
+        <v>0.00369986894111319</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10845,7 +10847,7 @@
         <v>1.45505438295822</v>
       </c>
       <c r="C701" s="0" t="n">
-        <v>0.453049092553556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10856,7 +10858,7 @@
         <v>1.11637094726669</v>
       </c>
       <c r="C702" s="0" t="n">
-        <v>0.751841988181695</v>
+        <v>0.512392566764228</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10867,7 +10869,7 @@
         <v>-2.58750505220993</v>
       </c>
       <c r="C703" s="0" t="n">
-        <v>0.799261799547821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10878,7 +10880,7 @@
         <v>-2.44057630144813</v>
       </c>
       <c r="C704" s="0" t="n">
-        <v>0.830780891235918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10889,7 +10891,7 @@
         <v>4.19052217440492</v>
       </c>
       <c r="C705" s="0" t="n">
-        <v>0.562859551981092</v>
+        <v>0.480620790863964</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10900,7 +10902,7 @@
         <v>1.43839228144838</v>
       </c>
       <c r="C706" s="0" t="n">
-        <v>0.950158457038924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10911,7 +10913,7 @@
         <v>0.653115478288878</v>
       </c>
       <c r="C707" s="0" t="n">
-        <v>0.224277127766982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10922,7 +10924,7 @@
         <v>-0.014588371125276</v>
       </c>
       <c r="C708" s="0" t="n">
-        <v>0.023115660995245</v>
+        <v>0.0590367930385517</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10933,7 +10935,7 @@
         <v>-1.43557729903731</v>
       </c>
       <c r="C709" s="0" t="n">
-        <v>0.523930720984936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10944,7 +10946,7 @@
         <v>0.813184401536788</v>
       </c>
       <c r="C710" s="0" t="n">
-        <v>0.879695154260844</v>
+        <v>0.485185705483205</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10955,7 +10957,7 @@
         <v>-1.03604849437386</v>
       </c>
       <c r="C711" s="0" t="n">
-        <v>0.445523631293327</v>
+        <v>0.530846047368861</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10966,7 +10968,7 @@
         <v>-0.78555556569526</v>
       </c>
       <c r="C712" s="0" t="n">
-        <v>0.126173438271508</v>
+        <v>0.424389248550948</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10977,7 +10979,7 @@
         <v>1.12295172194684</v>
       </c>
       <c r="C713" s="0" t="n">
-        <v>0.817726358771324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,7 +10990,7 @@
         <v>2.94520282983222</v>
       </c>
       <c r="C714" s="0" t="n">
-        <v>0.426917657256126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10999,7 +11001,7 @@
         <v>-3.64700044326582</v>
       </c>
       <c r="C715" s="0" t="n">
-        <v>0.537710135802627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11010,7 +11012,7 @@
         <v>1.07755127040498</v>
       </c>
       <c r="C716" s="0" t="n">
-        <v>0.848822102416307</v>
+        <v>0.104307223563761</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,7 +11023,7 @@
         <v>-0.273616925637106</v>
       </c>
       <c r="C717" s="0" t="n">
-        <v>0.327573166927323</v>
+        <v>0.342472973785051</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11032,7 +11034,7 @@
         <v>1.41685180007646</v>
       </c>
       <c r="C718" s="0" t="n">
-        <v>0.410256484057754</v>
+        <v>0.0549518561575561</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11043,7 +11045,7 @@
         <v>-0.365772461911927</v>
       </c>
       <c r="C719" s="0" t="n">
-        <v>0.0638910294510424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11054,7 +11056,7 @@
         <v>0.806497525618396</v>
       </c>
       <c r="C720" s="0" t="n">
-        <v>0.299403338693082</v>
+        <v>0.281964960283148</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11065,7 +11067,7 @@
         <v>1.28104332621935</v>
       </c>
       <c r="C721" s="0" t="n">
-        <v>0.526053197449073</v>
+        <v>0.643135744015984</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11076,7 +11078,7 @@
         <v>-2.34797156183546</v>
       </c>
       <c r="C722" s="0" t="n">
-        <v>0.622818534262478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11087,7 +11089,7 @@
         <v>-0.489241006827071</v>
       </c>
       <c r="C723" s="0" t="n">
-        <v>0.575048113940284</v>
+        <v>4.8954009587542E-005</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11098,7 +11100,7 @@
         <v>0.66668779401533</v>
       </c>
       <c r="C724" s="0" t="n">
-        <v>0.320981703931466</v>
+        <v>0.243037464171048</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11109,7 +11111,7 @@
         <v>0.343317300013027</v>
       </c>
       <c r="C725" s="0" t="n">
-        <v>0.829327980987727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11120,7 +11122,7 @@
         <v>-1.37226993215845</v>
       </c>
       <c r="C726" s="0" t="n">
-        <v>0.134753382764757</v>
+        <v>0.00800359441644089</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11131,7 +11133,7 @@
         <v>-0.434149138003802</v>
       </c>
       <c r="C727" s="0" t="n">
-        <v>0.382284521590918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11142,7 +11144,7 @@
         <v>-3.71263958161321</v>
       </c>
       <c r="C728" s="0" t="n">
-        <v>0.439014794304967</v>
+        <v>0.463267076580181</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11153,7 +11155,7 @@
         <v>-3.81064329948194</v>
       </c>
       <c r="C729" s="0" t="n">
-        <v>0.383065952919424</v>
+        <v>0.681438713887798</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,7 +11166,7 @@
         <v>-1.84745982602052</v>
       </c>
       <c r="C730" s="0" t="n">
-        <v>0.950514883734286</v>
+        <v>0.186639949179291</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11175,7 +11177,7 @@
         <v>-4.25233218806768</v>
       </c>
       <c r="C731" s="0" t="n">
-        <v>0.0581004628911614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11186,7 +11188,7 @@
         <v>-0.749208844570437</v>
       </c>
       <c r="C732" s="0" t="n">
-        <v>0.835742869181559</v>
+        <v>0.597656950395211</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,7 +11199,7 @@
         <v>1.16730874178371</v>
       </c>
       <c r="C733" s="0" t="n">
-        <v>0.206935473252088</v>
+        <v>0.0777376354219855</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11208,7 +11210,7 @@
         <v>-1.48635310943417</v>
       </c>
       <c r="C734" s="0" t="n">
-        <v>0.539448190014809</v>
+        <v>0.768913507048016</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11219,7 +11221,7 @@
         <v>0.962823143363016</v>
       </c>
       <c r="C735" s="0" t="n">
-        <v>0.699840160319582</v>
+        <v>0.277469627607056</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11230,7 +11232,7 @@
         <v>-1.59890953573228</v>
       </c>
       <c r="C736" s="0" t="n">
-        <v>0.0350973475724459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11241,7 +11243,7 @@
         <v>-0.697100995639586</v>
       </c>
       <c r="C737" s="0" t="n">
-        <v>0.618709512753412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,7 +11254,7 @@
         <v>0.246350435047847</v>
       </c>
       <c r="C738" s="0" t="n">
-        <v>0.321680446155369</v>
+        <v>0.321970523962741</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11263,7 +11265,7 @@
         <v>-1.56251343739809</v>
       </c>
       <c r="C739" s="0" t="n">
-        <v>0.319685243070126</v>
+        <v>0.425050530198706</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11274,7 +11276,7 @@
         <v>-2.21495044648379</v>
       </c>
       <c r="C740" s="0" t="n">
-        <v>0.0512211308814585</v>
+        <v>0.0597829083213166</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,7 +11287,7 @@
         <v>2.24157783733132</v>
       </c>
       <c r="C741" s="0" t="n">
-        <v>0.922132818726823</v>
+        <v>0.397410361024436</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,7 +11298,7 @@
         <v>0.405685945796893</v>
       </c>
       <c r="C742" s="0" t="n">
-        <v>0.379017564933747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11307,7 +11309,7 @@
         <v>0.344914874773837</v>
       </c>
       <c r="C743" s="0" t="n">
-        <v>0.0868130957242101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11318,7 +11320,7 @@
         <v>-0.658268335986423</v>
       </c>
       <c r="C744" s="0" t="n">
-        <v>0.0377161456272006</v>
+        <v>0.00768656526707107</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11329,7 +11331,7 @@
         <v>-0.852591405454903</v>
       </c>
       <c r="C745" s="0" t="n">
-        <v>0.331198840634897</v>
+        <v>0.402447570201018</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11340,7 +11342,7 @@
         <v>2.08732362061799</v>
       </c>
       <c r="C746" s="0" t="n">
-        <v>0.144700834294781</v>
+        <v>0.906018295134923</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11351,7 +11353,7 @@
         <v>-0.787083761385306</v>
       </c>
       <c r="C747" s="0" t="n">
-        <v>0.0616238010115922</v>
+        <v>0.125234970880728</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11362,7 +11364,7 @@
         <v>0.29660068949751</v>
       </c>
       <c r="C748" s="0" t="n">
-        <v>0.963264205027372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11373,7 +11375,7 @@
         <v>-3.1256918779732</v>
       </c>
       <c r="C749" s="0" t="n">
-        <v>0.120334874838591</v>
+        <v>0.0670823152288601</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11384,7 +11386,7 @@
         <v>-1.24132934489678</v>
       </c>
       <c r="C750" s="0" t="n">
-        <v>0.822206133510917</v>
+        <v>0.171964831518536</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11395,7 +11397,7 @@
         <v>1.75088770515495</v>
       </c>
       <c r="C751" s="0" t="n">
-        <v>0.816836499143392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11406,7 +11408,7 @@
         <v>1.15222289052338</v>
       </c>
       <c r="C752" s="0" t="n">
-        <v>0.373966737650335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11417,7 +11419,7 @@
         <v>1.06669848704497</v>
       </c>
       <c r="C753" s="0" t="n">
-        <v>0.801013651303947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11428,7 +11430,7 @@
         <v>1.92306202252364</v>
       </c>
       <c r="C754" s="0" t="n">
-        <v>0.363458845531568</v>
+        <v>0.0881898163177946</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11439,7 +11441,7 @@
         <v>-2.33334403066456</v>
       </c>
       <c r="C755" s="0" t="n">
-        <v>0.0885373298078775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11450,7 +11452,7 @@
         <v>1.72042534603411</v>
       </c>
       <c r="C756" s="0" t="n">
-        <v>0.595877552405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +11463,7 @@
         <v>-0.0665477309783912</v>
       </c>
       <c r="C757" s="0" t="n">
-        <v>0.424296280369163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11472,7 +11474,7 @@
         <v>-0.857551884861346</v>
       </c>
       <c r="C758" s="0" t="n">
-        <v>0.657846788177267</v>
+        <v>0.017832241431298</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11483,7 +11485,7 @@
         <v>-0.87073468891577</v>
       </c>
       <c r="C759" s="0" t="n">
-        <v>0.124989094212651</v>
+        <v>0.187879486206847</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11494,7 +11496,7 @@
         <v>-1.12303953617535</v>
       </c>
       <c r="C760" s="0" t="n">
-        <v>0.579164369031787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11505,7 +11507,7 @@
         <v>2.21780888184217</v>
       </c>
       <c r="C761" s="0" t="n">
-        <v>0.72089149383828</v>
+        <v>0.967168706551239</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11516,7 +11518,7 @@
         <v>-2.13261706716213</v>
       </c>
       <c r="C762" s="0" t="n">
-        <v>0.214873465476558</v>
+        <v>0.132211955696457</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11527,7 +11529,7 @@
         <v>1.63022856598794</v>
       </c>
       <c r="C763" s="0" t="n">
-        <v>0.130846963031217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11538,7 +11540,7 @@
         <v>2.20634500556537</v>
       </c>
       <c r="C764" s="0" t="n">
-        <v>0.816773860249668</v>
+        <v>0.0566532401057576</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11549,7 +11551,7 @@
         <v>-0.966312237656495</v>
       </c>
       <c r="C765" s="0" t="n">
-        <v>0.554218381876126</v>
+        <v>9.83880022454776E-006</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11560,7 +11562,7 @@
         <v>0.428138273991573</v>
       </c>
       <c r="C766" s="0" t="n">
-        <v>0.696162408450618</v>
+        <v>0.000173820037665529</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11571,7 +11573,7 @@
         <v>0.439333270272885</v>
       </c>
       <c r="C767" s="0" t="n">
-        <v>0.62662608968094</v>
+        <v>0.12504220217153</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11582,7 +11584,7 @@
         <v>0.318150889252953</v>
       </c>
       <c r="C768" s="0" t="n">
-        <v>0.665304122958332</v>
+        <v>0.00724246041253393</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11593,7 +11595,7 @@
         <v>-0.71361332599717</v>
       </c>
       <c r="C769" s="0" t="n">
-        <v>0.38688608747907</v>
+        <v>0.0254582747179259</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11604,7 +11606,7 @@
         <v>-2.57449887441684</v>
       </c>
       <c r="C770" s="0" t="n">
-        <v>0.630188155686483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11615,7 +11617,7 @@
         <v>1.17765967441505</v>
       </c>
       <c r="C771" s="0" t="n">
-        <v>0.779692713636905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11626,7 +11628,7 @@
         <v>-2.30152781409845</v>
       </c>
       <c r="C772" s="0" t="n">
-        <v>0.830664236564189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11637,7 +11639,7 @@
         <v>-1.04346738521365</v>
       </c>
       <c r="C773" s="0" t="n">
-        <v>0.247743227053434</v>
+        <v>0.000543549717664554</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11648,7 +11650,7 @@
         <v>3.26169461390584</v>
       </c>
       <c r="C774" s="0" t="n">
-        <v>0.116624371381477</v>
+        <v>0.000267793218623753</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11659,7 +11661,7 @@
         <v>-4.26144280073287</v>
       </c>
       <c r="C775" s="0" t="n">
-        <v>0.208224488189444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11670,7 +11672,7 @@
         <v>-3.24758956862964</v>
       </c>
       <c r="C776" s="0" t="n">
-        <v>0.0374276081565768</v>
+        <v>0.105147374888143</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11681,7 +11683,7 @@
         <v>-2.16153762405333</v>
       </c>
       <c r="C777" s="0" t="n">
-        <v>0.668927901890129</v>
+        <v>0.266307935034097</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11692,7 +11694,7 @@
         <v>-0.229355965324041</v>
       </c>
       <c r="C778" s="0" t="n">
-        <v>0.248799171065912</v>
+        <v>0.00417553332110596</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11703,7 +11705,7 @@
         <v>-0.957196339718281</v>
       </c>
       <c r="C779" s="0" t="n">
-        <v>0.909616828197613</v>
+        <v>0.00214271423210148</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11714,7 +11716,7 @@
         <v>3.12277456003199</v>
       </c>
       <c r="C780" s="0" t="n">
-        <v>0.0821820166893303</v>
+        <v>0.279772417325643</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11725,7 +11727,7 @@
         <v>0.378921627287323</v>
       </c>
       <c r="C781" s="0" t="n">
-        <v>0.951475362991914</v>
+        <v>0.060672759943616</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,7 +11738,7 @@
         <v>1.17378985468618</v>
       </c>
       <c r="C782" s="0" t="n">
-        <v>0.370714152231812</v>
+        <v>0.462242401435858</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11747,7 +11749,7 @@
         <v>-2.46310473735468</v>
       </c>
       <c r="C783" s="0" t="n">
-        <v>0.860237241489813</v>
+        <v>0.0810929857649449</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11758,7 +11760,7 @@
         <v>2.17774894705145</v>
       </c>
       <c r="C784" s="0" t="n">
-        <v>0.12329202494584</v>
+        <v>0.435033302263513</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11769,7 +11771,7 @@
         <v>-1.25221569416445</v>
       </c>
       <c r="C785" s="0" t="n">
-        <v>0.590472994139418</v>
+        <v>0.166585379265728</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11780,7 +11782,7 @@
         <v>0.849049470717939</v>
       </c>
       <c r="C786" s="0" t="n">
-        <v>0.401603700360283</v>
+        <v>0.137011948384091</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11791,7 +11793,7 @@
         <v>-0.670031178822304</v>
       </c>
       <c r="C787" s="0" t="n">
-        <v>0.504406850086525</v>
+        <v>0.337592594022867</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11802,7 +11804,7 @@
         <v>4.79677434861828</v>
       </c>
       <c r="C788" s="0" t="n">
-        <v>0.0335656953975558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11813,7 +11815,7 @@
         <v>-0.321392445538988</v>
       </c>
       <c r="C789" s="0" t="n">
-        <v>0.0530167014803738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,7 +11826,7 @@
         <v>-0.2480012556902</v>
       </c>
       <c r="C790" s="0" t="n">
-        <v>0.867322384146974</v>
+        <v>0.373964786634763</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11835,7 +11837,7 @@
         <v>0.429765565679479</v>
       </c>
       <c r="C791" s="0" t="n">
-        <v>0.508924829540774</v>
+        <v>0.112089800343176</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11846,7 +11848,7 @@
         <v>-1.70913784539918</v>
       </c>
       <c r="C792" s="0" t="n">
-        <v>0.990458020474762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11857,7 +11859,7 @@
         <v>-1.3445479876016</v>
       </c>
       <c r="C793" s="0" t="n">
-        <v>0.346753934631124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11868,7 +11870,7 @@
         <v>-1.57206023729157</v>
       </c>
       <c r="C794" s="0" t="n">
-        <v>0.5429515063297</v>
+        <v>0.0507644531518017</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11879,7 +11881,7 @@
         <v>-1.34865220116404</v>
       </c>
       <c r="C795" s="0" t="n">
-        <v>0.680608705384657</v>
+        <v>0.536292337770143</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11890,7 +11892,7 @@
         <v>2.39951242697987</v>
       </c>
       <c r="C796" s="0" t="n">
-        <v>0.883779252180829</v>
+        <v>0.401324281703673</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,7 +11903,7 @@
         <v>-1.68604906127056</v>
       </c>
       <c r="C797" s="0" t="n">
-        <v>0.388788609299809</v>
+        <v>0.835161214593637</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11912,7 +11914,7 @@
         <v>-0.0376191623592693</v>
       </c>
       <c r="C798" s="0" t="n">
-        <v>0.567803845042363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11923,7 +11925,7 @@
         <v>1.96003759956165</v>
       </c>
       <c r="C799" s="0" t="n">
-        <v>0.94687503692694</v>
+        <v>0.000575875340714122</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11934,7 +11936,7 @@
         <v>0.711645718025449</v>
       </c>
       <c r="C800" s="0" t="n">
-        <v>0.0111118291970342</v>
+        <v>0.0951555313038671</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11945,7 +11947,7 @@
         <v>0.604035787057282</v>
       </c>
       <c r="C801" s="0" t="n">
-        <v>0.433232276234776</v>
+        <v>0.964915087615092</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11956,7 +11958,7 @@
         <v>-0.734504439767585</v>
       </c>
       <c r="C802" s="0" t="n">
-        <v>0.423690244555473</v>
+        <v>0.000835698245962727</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11967,7 +11969,7 @@
         <v>0.529573391865946</v>
       </c>
       <c r="C803" s="0" t="n">
-        <v>0.455368535360321</v>
+        <v>0.178501080150269</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11978,7 +11980,7 @@
         <v>-3.17510884873601</v>
       </c>
       <c r="C804" s="0" t="n">
-        <v>0.850623003672808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11989,7 +11991,7 @@
         <v>-0.676523025419144</v>
       </c>
       <c r="C805" s="0" t="n">
-        <v>0.959215205395594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,7 +12002,7 @@
         <v>-0.0357011328560549</v>
       </c>
       <c r="C806" s="0" t="n">
-        <v>0.972019986947998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12011,7 +12013,7 @@
         <v>0.179632835247516</v>
       </c>
       <c r="C807" s="0" t="n">
-        <v>0.478672686265781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12022,7 +12024,7 @@
         <v>1.70771595178807</v>
       </c>
       <c r="C808" s="0" t="n">
-        <v>0.575308432336897</v>
+        <v>0.00475175142916856</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,7 +12035,7 @@
         <v>1.49849940597936</v>
       </c>
       <c r="C809" s="0" t="n">
-        <v>0.863129331497476</v>
+        <v>0.12163377426532</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12044,7 +12046,7 @@
         <v>-1.06830880058849</v>
       </c>
       <c r="C810" s="0" t="n">
-        <v>0.58139461837709</v>
+        <v>0.0177225784232342</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12055,7 +12057,7 @@
         <v>0.228632171449105</v>
       </c>
       <c r="C811" s="0" t="n">
-        <v>0.125908110756427</v>
+        <v>0.00383194242151934</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12066,7 +12068,7 @@
         <v>-1.22831020803188</v>
       </c>
       <c r="C812" s="0" t="n">
-        <v>0.326948632951826</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,7 +12079,7 @@
         <v>2.47985765127715</v>
       </c>
       <c r="C813" s="0" t="n">
-        <v>0.293630728730932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12088,7 +12090,7 @@
         <v>0.254832233113036</v>
       </c>
       <c r="C814" s="0" t="n">
-        <v>0.0317896225024015</v>
+        <v>0.300961043861615</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12099,7 +12101,7 @@
         <v>-1.0825467845061</v>
       </c>
       <c r="C815" s="0" t="n">
-        <v>0.462793336249888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12110,7 +12112,7 @@
         <v>-3.41391906396636</v>
       </c>
       <c r="C816" s="0" t="n">
-        <v>0.430773878935725</v>
+        <v>0.207342684880926</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12121,7 +12123,7 @@
         <v>0.0494253656250891</v>
       </c>
       <c r="C817" s="0" t="n">
-        <v>0.0490950252860785</v>
+        <v>0.0798274910058607</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12132,7 +12134,7 @@
         <v>-0.484854151262783</v>
       </c>
       <c r="C818" s="0" t="n">
-        <v>0.963657416636124</v>
+        <v>0.0612379758033591</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12143,7 +12145,7 @@
         <v>-1.02530291766109</v>
       </c>
       <c r="C819" s="0" t="n">
-        <v>0.029068103292957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12154,7 +12156,7 @@
         <v>2.27085895189456</v>
       </c>
       <c r="C820" s="0" t="n">
-        <v>0.308567048748955</v>
+        <v>0.0698971347025693</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12165,7 +12167,7 @@
         <v>0.16637095084436</v>
       </c>
       <c r="C821" s="0" t="n">
-        <v>0.570839176652953</v>
+        <v>0.475422740608508</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12176,7 +12178,7 @@
         <v>-3.67023966620786</v>
       </c>
       <c r="C822" s="0" t="n">
-        <v>0.230773261049762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12187,7 +12189,7 @@
         <v>-0.0705857163726805</v>
       </c>
       <c r="C823" s="0" t="n">
-        <v>0.773484903620556</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12198,7 +12200,7 @@
         <v>1.88770077902842</v>
       </c>
       <c r="C824" s="0" t="n">
-        <v>0.624931531492621</v>
+        <v>0.388490624324354</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12209,7 +12211,7 @@
         <v>-0.18298782778459</v>
       </c>
       <c r="C825" s="0" t="n">
-        <v>0.128888089675456</v>
+        <v>0.632286621181496</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12220,7 +12222,7 @@
         <v>-0.314177981067651</v>
       </c>
       <c r="C826" s="0" t="n">
-        <v>0.822847302304581</v>
+        <v>0.000481857515549373</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12231,7 +12233,7 @@
         <v>1.7910187330919</v>
       </c>
       <c r="C827" s="0" t="n">
-        <v>0.922540668630972</v>
+        <v>0.661214168641543</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12242,7 +12244,7 @@
         <v>1.33262138279131</v>
       </c>
       <c r="C828" s="0" t="n">
-        <v>0.289969476405531</v>
+        <v>0.15734783104898</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12253,7 +12255,7 @@
         <v>0.487304283631064</v>
       </c>
       <c r="C829" s="0" t="n">
-        <v>0.562423512805253</v>
+        <v>0.263442117729831</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12264,7 +12266,7 @@
         <v>-0.134844107605458</v>
       </c>
       <c r="C830" s="0" t="n">
-        <v>0.180612833471969</v>
+        <v>0.48678747682195</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12275,7 +12277,7 @@
         <v>0.0566362577362747</v>
       </c>
       <c r="C831" s="0" t="n">
-        <v>0.728277727030218</v>
+        <v>0.788294250631038</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12286,7 +12288,7 @@
         <v>-0.30130458878766</v>
       </c>
       <c r="C832" s="0" t="n">
-        <v>0.292297433363274</v>
+        <v>0.0084133656665572</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12297,7 +12299,7 @@
         <v>-0.228260997572899</v>
       </c>
       <c r="C833" s="0" t="n">
-        <v>0.515702642500401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12308,7 +12310,7 @@
         <v>2.63549708765543</v>
       </c>
       <c r="C834" s="0" t="n">
-        <v>0.592469185823575</v>
+        <v>0.0851067513825372</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12319,7 +12321,7 @@
         <v>1.87028661902772</v>
       </c>
       <c r="C835" s="0" t="n">
-        <v>0.756312699057162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12330,7 +12332,7 @@
         <v>-1.31175984816785</v>
       </c>
       <c r="C836" s="0" t="n">
-        <v>0.232516532763839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,7 +12343,7 @@
         <v>-2.23459705511388</v>
       </c>
       <c r="C837" s="0" t="n">
-        <v>0.493267443031073</v>
+        <v>0.563342566923411</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12352,7 +12354,7 @@
         <v>5.63518453344851</v>
       </c>
       <c r="C838" s="0" t="n">
-        <v>0.975712812505662</v>
+        <v>0.0335222627584842</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12363,7 +12365,7 @@
         <v>-0.293644620979436</v>
       </c>
       <c r="C839" s="0" t="n">
-        <v>0.0107978377491236</v>
+        <v>0.00407623993439892</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12374,7 +12376,7 @@
         <v>3.96519436538468</v>
       </c>
       <c r="C840" s="0" t="n">
-        <v>0.596842591417953</v>
+        <v>0.062236489688038</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12385,7 +12387,7 @@
         <v>0.43832657169135</v>
       </c>
       <c r="C841" s="0" t="n">
-        <v>0.894738794304431</v>
+        <v>0.107640887543231</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12396,7 +12398,7 @@
         <v>1.67041232177561</v>
       </c>
       <c r="C842" s="0" t="n">
-        <v>0.0544675695709884</v>
+        <v>0.193371436484422</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12407,7 +12409,7 @@
         <v>0.071226831208648</v>
       </c>
       <c r="C843" s="0" t="n">
-        <v>0.840259153861553</v>
+        <v>0.136771427888423</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12418,7 +12420,7 @@
         <v>-1.2691402886958</v>
       </c>
       <c r="C844" s="0" t="n">
-        <v>0.831113551743329</v>
+        <v>0.33527407782228</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12429,7 +12431,7 @@
         <v>3.35551387208567</v>
       </c>
       <c r="C845" s="0" t="n">
-        <v>0.0884228912182152</v>
+        <v>0.0725920327443496</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12440,7 +12442,7 @@
         <v>-1.04692684649461</v>
       </c>
       <c r="C846" s="0" t="n">
-        <v>0.687781766755506</v>
+        <v>0.00180187183817232</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12451,7 +12453,7 @@
         <v>-0.678352951212225</v>
       </c>
       <c r="C847" s="0" t="n">
-        <v>0.334404689725488</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12462,7 +12464,7 @@
         <v>-0.387567511225708</v>
       </c>
       <c r="C848" s="0" t="n">
-        <v>0.246657010167837</v>
+        <v>0.119163068003522</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,7 +12475,7 @@
         <v>-0.53852554537263</v>
       </c>
       <c r="C849" s="0" t="n">
-        <v>0.375096517847851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12484,7 +12486,7 @@
         <v>-0.640989421593643</v>
       </c>
       <c r="C850" s="0" t="n">
-        <v>0.800195741467178</v>
+        <v>0.219817372936674</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12495,7 +12497,7 @@
         <v>0.0965347576581016</v>
       </c>
       <c r="C851" s="0" t="n">
-        <v>0.869589566253126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12506,7 +12508,7 @@
         <v>1.14956154407122</v>
       </c>
       <c r="C852" s="0" t="n">
-        <v>0.465820496669039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12517,7 +12519,7 @@
         <v>-0.664785933102093</v>
       </c>
       <c r="C853" s="0" t="n">
-        <v>0.164960349909961</v>
+        <v>0.00279631494146594</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12528,7 +12530,7 @@
         <v>-2.8378564157354</v>
       </c>
       <c r="C854" s="0" t="n">
-        <v>0.540435774018988</v>
+        <v>0.178386201851165</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12539,7 +12541,7 @@
         <v>-0.664253526694894</v>
       </c>
       <c r="C855" s="0" t="n">
-        <v>0.668758847285062</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,7 +12552,7 @@
         <v>1.04979678668068</v>
       </c>
       <c r="C856" s="0" t="n">
-        <v>0.53597897849977</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12561,7 +12563,7 @@
         <v>-3.18561556440383</v>
       </c>
       <c r="C857" s="0" t="n">
-        <v>0.459473481634632</v>
+        <v>0.737100986541356</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12572,7 +12574,7 @@
         <v>-1.74762548175791</v>
       </c>
       <c r="C858" s="0" t="n">
-        <v>0.957600012654439</v>
+        <v>0.270627427672606</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12583,7 +12585,7 @@
         <v>-0.797864917215256</v>
       </c>
       <c r="C859" s="0" t="n">
-        <v>0.38439588714391</v>
+        <v>0.0471410216079777</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12594,7 +12596,7 @@
         <v>1.6015877556944</v>
       </c>
       <c r="C860" s="0" t="n">
-        <v>0.869083121884614</v>
+        <v>0.0501557487070947</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12605,7 +12607,7 @@
         <v>1.2181746707317</v>
       </c>
       <c r="C861" s="0" t="n">
-        <v>0.724002117058262</v>
+        <v>0.338831991246112</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12616,7 +12618,7 @@
         <v>-1.95748452371073</v>
       </c>
       <c r="C862" s="0" t="n">
-        <v>0.8145066217985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12627,7 +12629,7 @@
         <v>-2.43923800333378</v>
       </c>
       <c r="C863" s="0" t="n">
-        <v>0.105891796760261</v>
+        <v>0.231014722713591</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12638,7 +12640,7 @@
         <v>0.710111708580945</v>
       </c>
       <c r="C864" s="0" t="n">
-        <v>0.358417445560917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12649,7 +12651,7 @@
         <v>1.04238893182639</v>
       </c>
       <c r="C865" s="0" t="n">
-        <v>0.768175194505602</v>
+        <v>0.0976082694801389</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12660,7 +12662,7 @@
         <v>2.11318094799514</v>
       </c>
       <c r="C866" s="0" t="n">
-        <v>0.396412744186819</v>
+        <v>0.619386569582162</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12671,7 +12673,7 @@
         <v>-3.86508824833089</v>
       </c>
       <c r="C867" s="0" t="n">
-        <v>0.070065213367343</v>
+        <v>0.748505286791875</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12682,7 +12684,7 @@
         <v>2.71387669791133</v>
       </c>
       <c r="C868" s="0" t="n">
-        <v>0.590032291132957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12693,7 +12695,7 @@
         <v>0.983392558929843</v>
       </c>
       <c r="C869" s="0" t="n">
-        <v>0.581875514937565</v>
+        <v>0.600072060472386</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12704,7 +12706,7 @@
         <v>-1.76376996456729</v>
       </c>
       <c r="C870" s="0" t="n">
-        <v>0.398527345620096</v>
+        <v>0.0401109433703641</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,7 +12717,7 @@
         <v>-1.03912830603879</v>
       </c>
       <c r="C871" s="0" t="n">
-        <v>0.179652183316648</v>
+        <v>0.596908439818906</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12726,7 +12728,7 @@
         <v>1.97640160304616</v>
       </c>
       <c r="C872" s="0" t="n">
-        <v>0.0239787427708507</v>
+        <v>0.0967020129174544</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12737,7 +12739,7 @@
         <v>-3.87688088664585</v>
       </c>
       <c r="C873" s="0" t="n">
-        <v>0.893096984829753</v>
+        <v>0.056386925363154</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12748,7 +12750,7 @@
         <v>2.80312051068493</v>
       </c>
       <c r="C874" s="0" t="n">
-        <v>0.558894118061289</v>
+        <v>0.316100938650639</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12759,7 +12761,7 @@
         <v>0.0919026215658853</v>
       </c>
       <c r="C875" s="0" t="n">
-        <v>0.644553761696443</v>
+        <v>0.0134631231893004</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12770,7 +12772,7 @@
         <v>3.54107933722315</v>
       </c>
       <c r="C876" s="0" t="n">
-        <v>0.309723648941144</v>
+        <v>0.333094650456763</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12781,7 +12783,7 @@
         <v>1.60946912279224</v>
       </c>
       <c r="C877" s="0" t="n">
-        <v>0.252320152707398</v>
+        <v>0.375229006802246</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12792,7 +12794,7 @@
         <v>-1.7017760427673</v>
       </c>
       <c r="C878" s="0" t="n">
-        <v>0.00219584512524307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12803,7 +12805,7 @@
         <v>0.408742015946234</v>
       </c>
       <c r="C879" s="0" t="n">
-        <v>0.520029680104926</v>
+        <v>0.23896057483695</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12814,7 +12816,7 @@
         <v>1.58327292886613</v>
       </c>
       <c r="C880" s="0" t="n">
-        <v>0.100132502149791</v>
+        <v>0.0276901644772276</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12825,7 +12827,7 @@
         <v>0.213231702395481</v>
       </c>
       <c r="C881" s="0" t="n">
-        <v>0.632233311887831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12836,7 +12838,7 @@
         <v>0.848225476056465</v>
       </c>
       <c r="C882" s="0" t="n">
-        <v>0.880189762683585</v>
+        <v>0.123627123642462</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12847,7 +12849,7 @@
         <v>1.59423285618068</v>
       </c>
       <c r="C883" s="0" t="n">
-        <v>0.401662210933864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12858,7 +12860,7 @@
         <v>-1.87097323493452</v>
       </c>
       <c r="C884" s="0" t="n">
-        <v>0.370799596887082</v>
+        <v>0.969867007698923</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12869,7 +12871,7 @@
         <v>0.582727038678905</v>
       </c>
       <c r="C885" s="0" t="n">
-        <v>0.97528442624025</v>
+        <v>0.108409689041607</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12880,7 +12882,7 @@
         <v>-0.507573621993947</v>
       </c>
       <c r="C886" s="0" t="n">
-        <v>0.0532377001363784</v>
+        <v>0.584660201671833</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12891,7 +12893,7 @@
         <v>-1.09023281252251</v>
       </c>
       <c r="C887" s="0" t="n">
-        <v>0.485973784234375</v>
+        <v>0.474050860346237</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12902,7 +12904,7 @@
         <v>0.710448593003</v>
       </c>
       <c r="C888" s="0" t="n">
-        <v>0.127155844355002</v>
+        <v>0.985310902876746</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12913,7 +12915,7 @@
         <v>-2.87504830989516</v>
       </c>
       <c r="C889" s="0" t="n">
-        <v>0.545618569245562</v>
+        <v>0.709546902559405</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,7 +12926,7 @@
         <v>0.397530749042315</v>
       </c>
       <c r="C890" s="0" t="n">
-        <v>0.898480232805014</v>
+        <v>0.617821403704203</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12935,7 +12937,7 @@
         <v>-0.361507539917305</v>
       </c>
       <c r="C891" s="0" t="n">
-        <v>0.406842376803979</v>
+        <v>0.635293256348503</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12946,7 +12948,7 @@
         <v>3.58130674474674</v>
       </c>
       <c r="C892" s="0" t="n">
-        <v>0.770818431396037</v>
+        <v>0.290297795761047</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12957,7 +12959,7 @@
         <v>-0.0368469840487193</v>
       </c>
       <c r="C893" s="0" t="n">
-        <v>0.269109842600301</v>
+        <v>0.0783977682796173</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12968,7 +12970,7 @@
         <v>-0.554280804419492</v>
       </c>
       <c r="C894" s="0" t="n">
-        <v>0.714405728271231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12979,7 +12981,7 @@
         <v>-0.914653219980543</v>
       </c>
       <c r="C895" s="0" t="n">
-        <v>0.674471289617941</v>
+        <v>0.00673322321501828</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12990,7 +12992,7 @@
         <v>2.12832124884248</v>
       </c>
       <c r="C896" s="0" t="n">
-        <v>0.710706365993246</v>
+        <v>0.0147744611824423</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13001,7 +13003,7 @@
         <v>0.141260435066136</v>
       </c>
       <c r="C897" s="0" t="n">
-        <v>0.00356817594729364</v>
+        <v>0.274730140979005</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13012,7 +13014,7 @@
         <v>-0.634443073530625</v>
       </c>
       <c r="C898" s="0" t="n">
-        <v>0.11151866056025</v>
+        <v>0.00048187291907098</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13023,7 +13025,7 @@
         <v>-0.256518088696554</v>
       </c>
       <c r="C899" s="0" t="n">
-        <v>0.588483921252191</v>
+        <v>0.030114847582525</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13034,7 +13036,7 @@
         <v>4.14526142438079</v>
       </c>
       <c r="C900" s="0" t="n">
-        <v>0.840303614735603</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13045,7 +13047,7 @@
         <v>0.14106429763072</v>
       </c>
       <c r="C901" s="0" t="n">
-        <v>0.197980104479939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13056,7 +13058,7 @@
         <v>-0.256873690664711</v>
       </c>
       <c r="C902" s="0" t="n">
-        <v>0.400858901906759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13067,7 +13069,7 @@
         <v>-0.844787450938831</v>
       </c>
       <c r="C903" s="0" t="n">
-        <v>0.0756331542506814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13078,7 +13080,7 @@
         <v>3.1165337172917</v>
       </c>
       <c r="C904" s="0" t="n">
-        <v>0.355637227417901</v>
+        <v>0.282921192008056</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13089,7 +13091,7 @@
         <v>-1.76865811884139</v>
       </c>
       <c r="C905" s="0" t="n">
-        <v>0.838919292669743</v>
+        <v>0.0349138089236696</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13100,7 +13102,7 @@
         <v>-1.54899642253148</v>
       </c>
       <c r="C906" s="0" t="n">
-        <v>0.627453860361129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13111,7 +13113,7 @@
         <v>-2.07997506747377</v>
       </c>
       <c r="C907" s="0" t="n">
-        <v>0.0752155715599656</v>
+        <v>0.727439282213268</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13122,7 +13124,7 @@
         <v>0.607532568750634</v>
       </c>
       <c r="C908" s="0" t="n">
-        <v>0.913970526307821</v>
+        <v>0.47728290901007</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13133,7 +13135,7 @@
         <v>-2.71377927365411</v>
       </c>
       <c r="C909" s="0" t="n">
-        <v>0.275710698449984</v>
+        <v>0.0263116573018519</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,7 +13146,7 @@
         <v>0.749260857499868</v>
       </c>
       <c r="C910" s="0" t="n">
-        <v>0.738668985897675</v>
+        <v>0.0635280973752831</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13155,7 +13157,7 @@
         <v>1.08261433005842</v>
       </c>
       <c r="C911" s="0" t="n">
-        <v>0.00719851534813643</v>
+        <v>0.81197821153583</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13166,7 +13168,7 @@
         <v>0.71250975350645</v>
       </c>
       <c r="C912" s="0" t="n">
-        <v>0.427905675256625</v>
+        <v>8.08574317712578E-005</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13177,7 +13179,7 @@
         <v>0.827506265034261</v>
       </c>
       <c r="C913" s="0" t="n">
-        <v>0.166447176598012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13188,7 +13190,7 @@
         <v>-0.874586985797192</v>
       </c>
       <c r="C914" s="0" t="n">
-        <v>0.717827464919537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13199,7 +13201,7 @@
         <v>-1.2801853563361</v>
       </c>
       <c r="C915" s="0" t="n">
-        <v>0.14980293251574</v>
+        <v>0.715692281242623</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13210,7 +13212,7 @@
         <v>-0.139132071578848</v>
       </c>
       <c r="C916" s="0" t="n">
-        <v>0.135180357377976</v>
+        <v>0.000579163778277003</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13221,7 +13223,7 @@
         <v>-0.510214450001957</v>
       </c>
       <c r="C917" s="0" t="n">
-        <v>0.442641284316778</v>
+        <v>0.455840955424034</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13232,7 +13234,7 @@
         <v>0.386431926429024</v>
       </c>
       <c r="C918" s="0" t="n">
-        <v>0.038572371006012</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,7 +13245,7 @@
         <v>1.80134762160919</v>
       </c>
       <c r="C919" s="0" t="n">
-        <v>0.0498735054861754</v>
+        <v>0.945452450193</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13254,7 +13256,7 @@
         <v>-0.38184462608584</v>
       </c>
       <c r="C920" s="0" t="n">
-        <v>0.131726300576702</v>
+        <v>0.0637241552849286</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13265,7 +13267,7 @@
         <v>1.22422448246634</v>
       </c>
       <c r="C921" s="0" t="n">
-        <v>0.137383657274768</v>
+        <v>0.00789865822997682</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13276,7 +13278,7 @@
         <v>-3.84171120640698</v>
       </c>
       <c r="C922" s="0" t="n">
-        <v>0.278381115291268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13287,7 +13289,7 @@
         <v>2.76962107053813</v>
       </c>
       <c r="C923" s="0" t="n">
-        <v>0.903561571845785</v>
+        <v>0.065314705658058</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13298,7 +13300,7 @@
         <v>-2.51300433747985</v>
       </c>
       <c r="C924" s="0" t="n">
-        <v>0.804863569093868</v>
+        <v>0.00829839116427595</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13309,7 +13311,7 @@
         <v>0.97961470087023</v>
       </c>
       <c r="C925" s="0" t="n">
-        <v>0.726093758363277</v>
+        <v>0.465248874391141</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13320,7 +13322,7 @@
         <v>-0.875813027349528</v>
       </c>
       <c r="C926" s="0" t="n">
-        <v>0.982034434331581</v>
+        <v>0.00318354020618637</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13331,7 +13333,7 @@
         <v>2.61303234234839</v>
       </c>
       <c r="C927" s="0" t="n">
-        <v>0.804847357096151</v>
+        <v>0.153781075987439</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13342,7 +13344,7 @@
         <v>0.542647574634594</v>
       </c>
       <c r="C928" s="0" t="n">
-        <v>0.778513042721897</v>
+        <v>0.0415155191583767</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13353,7 +13355,7 @@
         <v>4.26335612920066</v>
       </c>
       <c r="C929" s="0" t="n">
-        <v>0.121002450119704</v>
+        <v>0.944096530328765</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13364,7 +13366,7 @@
         <v>-1.26036657626526</v>
       </c>
       <c r="C930" s="0" t="n">
-        <v>0.584372653858736</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13375,7 +13377,7 @@
         <v>-0.950439946375367</v>
       </c>
       <c r="C931" s="0" t="n">
-        <v>0.524494353216141</v>
+        <v>0.000918096649585168</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13386,7 +13388,7 @@
         <v>3.13190508337533</v>
       </c>
       <c r="C932" s="0" t="n">
-        <v>0.209922566078603</v>
+        <v>0.0988612105945451</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,7 +13399,7 @@
         <v>-3.28932280826381</v>
       </c>
       <c r="C933" s="0" t="n">
-        <v>0.931076217442751</v>
+        <v>2.94198483542546E-005</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13408,7 +13410,7 @@
         <v>-1.41628801356702</v>
       </c>
       <c r="C934" s="0" t="n">
-        <v>0.3164647964295</v>
+        <v>0.177818473018612</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13419,7 +13421,7 @@
         <v>-1.0829502813786</v>
       </c>
       <c r="C935" s="0" t="n">
-        <v>0.70034428872168</v>
+        <v>0.988831470883271</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13430,7 +13432,7 @@
         <v>1.92584823560139</v>
       </c>
       <c r="C936" s="0" t="n">
-        <v>0.871018056524918</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13441,7 +13443,7 @@
         <v>1.00699444940748</v>
       </c>
       <c r="C937" s="0" t="n">
-        <v>0.399614121764898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13452,7 +13454,7 @@
         <v>0.398379235618175</v>
       </c>
       <c r="C938" s="0" t="n">
-        <v>0.504258173517883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13463,7 +13465,7 @@
         <v>-1.2751051325837</v>
       </c>
       <c r="C939" s="0" t="n">
-        <v>0.0826029891613871</v>
+        <v>0.0577508025875464</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13474,7 +13476,7 @@
         <v>5.58883854884561</v>
       </c>
       <c r="C940" s="0" t="n">
-        <v>0.395022923359647</v>
+        <v>0.648511236431889</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13485,7 +13487,7 @@
         <v>-2.477663439439</v>
       </c>
       <c r="C941" s="0" t="n">
-        <v>0.0702671550679952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13496,7 +13498,7 @@
         <v>-1.49618258009532</v>
       </c>
       <c r="C942" s="0" t="n">
-        <v>0.0752133878413588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +13509,7 @@
         <v>-0.574706733860548</v>
       </c>
       <c r="C943" s="0" t="n">
-        <v>0.307985608000308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13518,7 +13520,7 @@
         <v>-1.13088599010539</v>
       </c>
       <c r="C944" s="0" t="n">
-        <v>0.873902879655361</v>
+        <v>0.0582897372777182</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13529,7 +13531,7 @@
         <v>-0.937059778103123</v>
       </c>
       <c r="C945" s="0" t="n">
-        <v>0.418297207914293</v>
+        <v>0.023929809686984</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,7 +13542,7 @@
         <v>-3.43879552951499</v>
       </c>
       <c r="C946" s="0" t="n">
-        <v>0.0311826465185732</v>
+        <v>0.543818789552569</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13551,7 +13553,7 @@
         <v>-2.55643927411667</v>
       </c>
       <c r="C947" s="0" t="n">
-        <v>0.350189967313781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13562,7 +13564,7 @@
         <v>0.0867845919966825</v>
       </c>
       <c r="C948" s="0" t="n">
-        <v>0.327938263537362</v>
+        <v>0.867694150733678</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,7 +13575,7 @@
         <v>-2.75397889314247</v>
       </c>
       <c r="C949" s="0" t="n">
-        <v>0.578314109938219</v>
+        <v>0.00854066961365484</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13584,7 +13586,7 @@
         <v>-2.69472996712706</v>
       </c>
       <c r="C950" s="0" t="n">
-        <v>0.45910144620575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13595,7 +13597,7 @@
         <v>-1.48622119341973</v>
       </c>
       <c r="C951" s="0" t="n">
-        <v>0.0809973604045808</v>
+        <v>0.12619875204977</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13606,7 +13608,7 @@
         <v>-2.11987936769787</v>
       </c>
       <c r="C952" s="0" t="n">
-        <v>0.263414441142231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13617,7 +13619,7 @@
         <v>1.8104157894971</v>
       </c>
       <c r="C953" s="0" t="n">
-        <v>0.51465217047371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13628,7 +13630,7 @@
         <v>1.73490829815137</v>
       </c>
       <c r="C954" s="0" t="n">
-        <v>0.425192113267258</v>
+        <v>0.623851054833411</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13639,7 +13641,7 @@
         <v>-2.52850275661044</v>
       </c>
       <c r="C955" s="0" t="n">
-        <v>0.603478403761983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13650,7 +13652,7 @@
         <v>-1.93410201262333</v>
       </c>
       <c r="C956" s="0" t="n">
-        <v>0.687119086738676</v>
+        <v>0.524657255665088</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,7 +13663,7 @@
         <v>-3.38699561035808</v>
       </c>
       <c r="C957" s="0" t="n">
-        <v>0.747738101053983</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13672,7 +13674,7 @@
         <v>-1.02466153041386</v>
       </c>
       <c r="C958" s="0" t="n">
-        <v>0.340284539619461</v>
+        <v>0.491281979962337</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,7 +13685,7 @@
         <v>-0.749466475488084</v>
       </c>
       <c r="C959" s="0" t="n">
-        <v>0.733508123084903</v>
+        <v>0.0556083501854244</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13694,7 +13696,7 @@
         <v>-3.92257337028146</v>
       </c>
       <c r="C960" s="0" t="n">
-        <v>0.782187479548156</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13705,7 +13707,7 @@
         <v>-0.404097481227234</v>
       </c>
       <c r="C961" s="0" t="n">
-        <v>0.496273837285116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13716,7 +13718,7 @@
         <v>2.7217798358703</v>
       </c>
       <c r="C962" s="0" t="n">
-        <v>0.346685527358204</v>
+        <v>1.4045409771222E-005</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13727,7 +13729,7 @@
         <v>-0.301823466282965</v>
       </c>
       <c r="C963" s="0" t="n">
-        <v>0.7229369871784</v>
+        <v>0.00113500388024088</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13738,7 +13740,7 @@
         <v>-1.89475024615197</v>
       </c>
       <c r="C964" s="0" t="n">
-        <v>0.638459833804518</v>
+        <v>0.107539233208727</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13749,7 +13751,7 @@
         <v>3.2412792628006</v>
       </c>
       <c r="C965" s="0" t="n">
-        <v>0.771608203649521</v>
+        <v>0.074456517707454</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,7 +13762,7 @@
         <v>-1.69106724637743</v>
       </c>
       <c r="C966" s="0" t="n">
-        <v>0.772146604955196</v>
+        <v>0.0196148842885252</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13771,7 +13773,7 @@
         <v>-0.739184718658491</v>
       </c>
       <c r="C967" s="0" t="n">
-        <v>0.532520574517548</v>
+        <v>0.000681377642841523</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13782,7 +13784,7 @@
         <v>2.39952357198477</v>
       </c>
       <c r="C968" s="0" t="n">
-        <v>0.0681008934043348</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13793,7 +13795,7 @@
         <v>0.0349840275035313</v>
       </c>
       <c r="C969" s="0" t="n">
-        <v>0.327561574056745</v>
+        <v>0.457259370784823</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13804,7 +13806,7 @@
         <v>3.43917453586247</v>
       </c>
       <c r="C970" s="0" t="n">
-        <v>0.553542258217931</v>
+        <v>0.208014741198769</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13815,7 +13817,7 @@
         <v>1.80812828214589</v>
       </c>
       <c r="C971" s="0" t="n">
-        <v>0.281522890087217</v>
+        <v>0.258911212657227</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13826,7 +13828,7 @@
         <v>1.72401381545635</v>
       </c>
       <c r="C972" s="0" t="n">
-        <v>0.587873086566106</v>
+        <v>0.366043106726435</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13839,7 @@
         <v>-1.03654723638336</v>
       </c>
       <c r="C973" s="0" t="n">
-        <v>0.967022559139878</v>
+        <v>0.028965366076343</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13848,7 +13850,7 @@
         <v>1.34826681779602</v>
       </c>
       <c r="C974" s="0" t="n">
-        <v>0.103546948870644</v>
+        <v>0.692968816083381</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13859,7 +13861,7 @@
         <v>2.11515938309306</v>
       </c>
       <c r="C975" s="0" t="n">
-        <v>0.911908078705892</v>
+        <v>0.966915976844901</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13872,7 @@
         <v>0.398113516254506</v>
       </c>
       <c r="C976" s="0" t="n">
-        <v>0.64029784896411</v>
+        <v>0.793665447220134</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13881,7 +13883,7 @@
         <v>2.17905168983925</v>
       </c>
       <c r="C977" s="0" t="n">
-        <v>0.904023410286754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13892,7 +13894,7 @@
         <v>1.14792642169581</v>
       </c>
       <c r="C978" s="0" t="n">
-        <v>0.130293162772432</v>
+        <v>0.883668867433111</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,7 +13905,7 @@
         <v>0.970724213290195</v>
       </c>
       <c r="C979" s="0" t="n">
-        <v>0.990917254472151</v>
+        <v>0.248254560833482</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13914,7 +13916,7 @@
         <v>-2.25801725866872</v>
       </c>
       <c r="C980" s="0" t="n">
-        <v>0.267921715043485</v>
+        <v>0.0423584295627414</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,7 +13927,7 @@
         <v>-3.61228246360627</v>
       </c>
       <c r="C981" s="0" t="n">
-        <v>0.857333762105554</v>
+        <v>0.822386147061788</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13936,7 +13938,7 @@
         <v>-0.963677659135038</v>
       </c>
       <c r="C982" s="0" t="n">
-        <v>0.535060309572145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,7 +13949,7 @@
         <v>0.879929975490833</v>
       </c>
       <c r="C983" s="0" t="n">
-        <v>0.980874573579058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,7 +13960,7 @@
         <v>2.07430137521528</v>
       </c>
       <c r="C984" s="0" t="n">
-        <v>0.269492990570143</v>
+        <v>0.707422702905369</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,7 +13971,7 @@
         <v>-5.08556638668981</v>
       </c>
       <c r="C985" s="0" t="n">
-        <v>0.915921465726569</v>
+        <v>0.752440352074233</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13980,7 +13982,7 @@
         <v>-4.28679349444031</v>
       </c>
       <c r="C986" s="0" t="n">
-        <v>0.0414621233940125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13991,7 +13993,7 @@
         <v>0.173825576113456</v>
       </c>
       <c r="C987" s="0" t="n">
-        <v>0.657892394345254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14002,7 +14004,7 @@
         <v>-2.35546826471228</v>
       </c>
       <c r="C988" s="0" t="n">
-        <v>0.253496234072372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14013,7 +14015,7 @@
         <v>-2.14078555793742</v>
       </c>
       <c r="C989" s="0" t="n">
-        <v>0.326809976715595</v>
+        <v>0.533582896332018</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14024,7 +14026,7 @@
         <v>2.26045075240284</v>
       </c>
       <c r="C990" s="0" t="n">
-        <v>0.913000113796443</v>
+        <v>0.328585933410377</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,7 +14037,7 @@
         <v>-0.646301016716818</v>
       </c>
       <c r="C991" s="0" t="n">
-        <v>0.282455588690937</v>
+        <v>0.248044442539533</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14046,7 +14048,7 @@
         <v>-0.869461935056951</v>
       </c>
       <c r="C992" s="0" t="n">
-        <v>0.654265605611727</v>
+        <v>0.558098278604895</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14057,7 +14059,7 @@
         <v>0.0324549674957286</v>
       </c>
       <c r="C993" s="0" t="n">
-        <v>0.461547445505858</v>
+        <v>0.476264513635865</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14068,7 +14070,7 @@
         <v>0.466642697272996</v>
       </c>
       <c r="C994" s="0" t="n">
-        <v>0.135103228734806</v>
+        <v>0.141983084004703</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14079,7 +14081,7 @@
         <v>0.479763614441917</v>
       </c>
       <c r="C995" s="0" t="n">
-        <v>0.539858612464741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14090,7 +14092,7 @@
         <v>0.465917390810094</v>
       </c>
       <c r="C996" s="0" t="n">
-        <v>0.446986670140177</v>
+        <v>0.0010504674013557</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14101,7 +14103,7 @@
         <v>1.79248094906028</v>
       </c>
       <c r="C997" s="0" t="n">
-        <v>0.657427113968879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14112,7 +14114,7 @@
         <v>2.32896441145386</v>
       </c>
       <c r="C998" s="0" t="n">
-        <v>0.968453739769757</v>
+        <v>0.165202402314694</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14123,7 +14125,7 @@
         <v>2.18202428899752</v>
       </c>
       <c r="C999" s="0" t="n">
-        <v>0.52137468662113</v>
+        <v>0.0879246339649373</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14134,7 +14136,7 @@
         <v>1.05544562827837</v>
       </c>
       <c r="C1000" s="0" t="n">
-        <v>0.910317652393132</v>
+        <v>0.92877765778377</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,7 +14147,7 @@
         <v>-3.66400328890731</v>
       </c>
       <c r="C1001" s="0" t="n">
-        <v>0.118510367814451</v>
+        <v>0.215219852119755</v>
       </c>
     </row>
   </sheetData>
